--- a/frontend/uploaded/Маршруты 15.04.2025.xlsx
+++ b/frontend/uploaded/Маршруты 15.04.2025.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\ртк\2025\Журналы доставки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="735">
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="735">
   <si>
     <t>Регион/Маршрут (18)</t>
   </si>
@@ -91,7 +96,7 @@
     <t>Гювелян Вартан Арамович ИП</t>
   </si>
   <si>
-    <t>,, Тульская обл, Воловский р-н, , Красавка (Борятинское МО) д, , , , </t>
+    <t>,, Тульская обл, Воловский р-н, , Красавка (Борятинское МО) д, , , ,</t>
   </si>
   <si>
     <t>Медведев Александр Иванович</t>
@@ -202,7 +207,7 @@
     <t>Степанов Евгений Евгеньевич ИП</t>
   </si>
   <si>
-    <t>,306000, Курская обл, Поныровский р-н, , Поныри рп, Сапунова ул, , , </t>
+    <t>,306000, Курская обл, Поныровский р-н, , Поныри рп, Сапунова ул, , ,</t>
   </si>
   <si>
     <t>АЗС Роспетрол</t>
@@ -214,7 +219,7 @@
     <t>Русь СХПК</t>
   </si>
   <si>
-    <t>,306046, Курская обл, Золотухинский р-н, , Гремячка с, , , , </t>
+    <t>,306046, Курская обл, Золотухинский р-н, , Гремячка с, , , ,</t>
   </si>
   <si>
     <t>ТП 31 Волохатых А.      +7 910 278 10 25</t>
@@ -427,7 +432,7 @@
     <t>Молодцов Сергей Григорьевич КГФХ</t>
   </si>
   <si>
-    <t>,307051, Курская обл, Медвенский р-н, , Любицкое с, , , , </t>
+    <t>,307051, Курская обл, Медвенский р-н, , Любицкое с, , , ,</t>
   </si>
   <si>
     <t>НА СРЕДУ  ПОЗВОНИТЬ ЗА 30 мин  89513375459 Сергей Григорьевич</t>
@@ -457,10 +462,10 @@
     <t>Изоплит АО</t>
   </si>
   <si>
-    <t>,306230, Курская обл, Обоянский р-н, Обоянь г, , Ленина ул, 98, , , , , </t>
-  </si>
-  <si>
-    <t>на среду---НУЖЕН СЕРТИФИКАТ КАЧЕСТВА +7 915 131-65-08 Светлана обед с 12 до 13 </t>
+    <t>,306230, Курская обл, Обоянский р-н, Обоянь г, , Ленина ул, 98, , , , ,</t>
+  </si>
+  <si>
+    <t>на среду---НУЖЕН СЕРТИФИКАТ КАЧЕСТВА +7 915 131-65-08 Светлана обед с 12 до 13</t>
   </si>
   <si>
     <t>Реализация товаров и услуг РК000000191 от 15.04.2025 20:14:57</t>
@@ -505,7 +510,7 @@
     <t>Реализация товаров и услуг РТ000008289 от 15.04.2025 20:12:06</t>
   </si>
   <si>
-    <t>Нефтетранс ООО </t>
+    <t>Нефтетранс ООО</t>
   </si>
   <si>
     <t>,306137, Курская обл, Солнцевский р-н, , Зуевка с, Погореловка ул, 10, , , дом, корпус, кв.</t>
@@ -553,7 +558,7 @@
     <t>АВИН</t>
   </si>
   <si>
-    <t>,, Воронежская обл, , Воронеж г, , ул. Ростовская № 2 Маг.Камаз рынок Южный, , , </t>
+    <t>,, Воронежская обл, , Воронеж г, , ул. Ростовская № 2 Маг.Камаз рынок Южный, , ,</t>
   </si>
   <si>
     <t>ТП 2 Клименко В. М.       +7 920 443 56 55</t>
@@ -574,7 +579,7 @@
     <t>Дайнава-Центр ООО</t>
   </si>
   <si>
-    <t>,394002, Воронежская обл, , Воронеж г, , Димитрова ул, 134Б, , , , , </t>
+    <t>,394002, Воронежская обл, , Воронеж г, , Димитрова ул, 134Б, , , , ,</t>
   </si>
   <si>
     <t>ТП 9 Конинский Е.В. +7 960 107 71 92</t>
@@ -604,7 +609,7 @@
     <t>Реализация товаров и услуг РТ000008233 от 15.04.2025 19:30:06</t>
   </si>
   <si>
-    <t>АВТОКИТ ООО </t>
+    <t>АВТОКИТ ООО</t>
   </si>
   <si>
     <t>,, Воронежская обл, Новоусманский р-н, , Новая Усмань с, Дорожная, 4А, , , дом, корпус, кв.</t>
@@ -646,7 +651,7 @@
     <t>ТП 12 Курчевский А.         +7 906 580 01 11</t>
   </si>
   <si>
-    <t>доставка в офис </t>
+    <t>доставка в офис</t>
   </si>
   <si>
     <t>Реализация товаров и услуг _РТ00005347 от 15.04.2025 16:27:43</t>
@@ -679,7 +684,7 @@
     <t>Альтаир-Липецк ООО</t>
   </si>
   <si>
-    <t>,399704, Липецкая обл, Становлянский р-н, , Ламское с, Победы ул, 12, , , , , </t>
+    <t>,399704, Липецкая обл, Становлянский р-н, , Ламское с, Победы ул, 12, , , , ,</t>
   </si>
   <si>
     <t>Дударев Александр Владимирович</t>
@@ -697,7 +702,7 @@
     <t>,301845, Тульская обл, , Ефремов г, , Майорова ул, 2, , , дом, корпус, кв.</t>
   </si>
   <si>
-    <t>Работает до 22-00  </t>
+    <t>Работает до 22-00</t>
   </si>
   <si>
     <t>Реализация товаров и услуг _РТ00005369 от 15.04.2025 19:47:57</t>
@@ -754,7 +759,7 @@
     <t>,301246, Тульская обл, Щекинский р-н, Щекино г, , Лукашина ул, 10, , , дом, корпус, кв.</t>
   </si>
   <si>
-    <t>Забрать Havens, накладная прикреплена </t>
+    <t>Забрать Havens, накладная прикреплена</t>
   </si>
   <si>
     <t>Реализация товаров и услуг С0000000868 от 15.04.2025 19:46:14</t>
@@ -784,7 +789,7 @@
     <t>Гусейнов Расим Гусейн Оглы ИП</t>
   </si>
   <si>
-    <t>,300004, Тульская обл, , Тула г, , Кирова ул, 151, , , , , </t>
+    <t>,300004, Тульская обл, , Тула г, , Кирова ул, 151, , , , ,</t>
   </si>
   <si>
     <t>Реализация товаров и услуг С0000000853 от 15.04.2025 19:44:10</t>
@@ -805,7 +810,7 @@
     <t>,300045, Тульская обл, , Тула г, , Новомосковское ш, 54, , , дом, корпус, кв.</t>
   </si>
   <si>
-    <t>Просит привезти пораньше, т.к будет трактор для выгрузки !!! </t>
+    <t>Просит привезти пораньше, т.к будет трактор для выгрузки !!!</t>
   </si>
   <si>
     <t>Реализация товаров и услуг _РТ00005406 от 15.04.2025 19:43:06</t>
@@ -853,7 +858,7 @@
     <t>Реализация товаров и услуг _РТ00005388 от 15.04.2025 19:41:19</t>
   </si>
   <si>
-    <t>,, , , , , 217 км трассы М4 автостоянка «Тройка»  направление на Ростов, , , </t>
+    <t>,, , , , , 217 км трассы М4 автостоянка «Тройка»  направление на Ростов, , ,</t>
   </si>
   <si>
     <t>Новоусманский район, Воронежская обл.</t>
@@ -922,7 +927,7 @@
     <t>Кристалл-Авто ООО</t>
   </si>
   <si>
-    <t>,396311, Воронежская обл, Новоусманский м. р-н, Усманское с.п. 1-е, Новая Усмань с, Дорожная ул, 1/4, , 2, , , </t>
+    <t>,396311, Воронежская обл, Новоусманский м. р-н, Усманское с.п. 1-е, Новая Усмань с, Дорожная ул, 1/4, , 2, , ,</t>
   </si>
   <si>
     <t>ВОЗВРАТ ТОВАРА.ПЕРЕСОРТ</t>
@@ -946,7 +951,7 @@
     <t>ШИННЫЙ ДВОР ООО</t>
   </si>
   <si>
-    <t>доставка  Рамонский район, территория Промышленная, зона 2, 2  напротоив аэропорта 89183940694 89928885848 </t>
+    <t>доставка  Рамонский район, территория Промышленная, зона 2, 2  напротоив аэропорта 89183940694 89928885848</t>
   </si>
   <si>
     <t>добивка</t>
@@ -994,7 +999,7 @@
     <t>ТП 8 Акиньшин Ю.А.   +7 908 143 67 28</t>
   </si>
   <si>
-    <t>ПЕРЕПОДПИСЬ/Лампа светодиод. H4 Q3 Allroad (P43t) 9-32V 20W ALRQ3H04-12/принят возврат,отказ клиента </t>
+    <t>ПЕРЕПОДПИСЬ/Лампа светодиод. H4 Q3 Allroad (P43t) 9-32V 20W ALRQ3H04-12/принят возврат,отказ клиента</t>
   </si>
   <si>
     <t>Реализация товаров и услуг РТ000008304 от 15.04.2025 18:53:58</t>
@@ -1015,7 +1020,7 @@
     <t>,394065, Воронежская обл, , Воронеж г, , Солнечная ул, 10/6, , , дом, корпус, кв.</t>
   </si>
   <si>
-    <t>доставка с 8 до 12 ч  </t>
+    <t>доставка с 8 до 12 ч</t>
   </si>
   <si>
     <t>Реализация товаров и услуг РТ000008300 от 15.04.2025 19:35:45</t>
@@ -1033,7 +1038,7 @@
     <t>Складтехника-Сервис</t>
   </si>
   <si>
-    <t>,394026, Воронежская обл., , Воронеж г., , Пр-т Труда, 48/Г, , , , , </t>
+    <t>,394026, Воронежская обл., , Воронеж г., , Пр-т Труда, 48/Г, , , , ,</t>
   </si>
   <si>
     <t>Реализация товаров и услуг РТ000008198 от 15.04.2025 19:04:49</t>
@@ -1063,7 +1068,7 @@
     <t>Реализация товаров и услуг РТ000008291 от 15.04.2025 19:48:49</t>
   </si>
   <si>
-    <t>Система ООО </t>
+    <t>Система ООО</t>
   </si>
   <si>
     <t>,, Воронежская обл, , Воронеж г, , Газовая ул, 28, , , дом, корпус, кв.</t>
@@ -1144,7 +1149,7 @@
     <t>Реализация товаров и услуг РТ000008258 от 15.04.2025 14:33:28</t>
   </si>
   <si>
-    <t>Лютиков А.А. ИП </t>
+    <t>Лютиков А.А. ИП</t>
   </si>
   <si>
     <t>,394016, Воронежская обл, , Воронеж г, , Лизюкова ул., 99, , , дом, корпус, оф.</t>
@@ -1174,7 +1179,7 @@
     <t>Реализация товаров и услуг С0000000872 от 15.04.2025 18:55:19</t>
   </si>
   <si>
-    <t>Агроснаб ООО </t>
+    <t>Агроснаб ООО</t>
   </si>
   <si>
     <t>Яськов Сергей Николаевич</t>
@@ -1198,7 +1203,7 @@
     <t>Реализация товаров и услуг РТ000008309 от 15.04.2025 18:54:20</t>
   </si>
   <si>
-    <t>Данилов В.А. ИП </t>
+    <t>Данилов В.А. ИП</t>
   </si>
   <si>
     <t>,, Волгоградская обл, , Урюпинск, , Гора Восточная, 93, тел: 8-961-670-36-67, , дом, корпус, кв.</t>
@@ -1285,7 +1290,7 @@
     <t>Реализация товаров и услуг РТ000008308 от 15.04.2025 18:49:24</t>
   </si>
   <si>
-    <t>Жигульский А.С. ИП </t>
+    <t>Жигульский А.С. ИП</t>
   </si>
   <si>
     <t>,397420, Воронежская обл, Новохоперский р-н, , Елань-Колено с, Нагорная ул, 101а, , , дом, корпус, кв.</t>
@@ -1306,7 +1311,7 @@
     <t>Агролайн ООО</t>
   </si>
   <si>
-    <t>Адрес: рп Таловая. Вор. обл., ул. Чапаева Д. 63. 8951553-69-78- стас. За час. </t>
+    <t>Адрес: рп Таловая. Вор. обл., ул. Чапаева Д. 63. 8951553-69-78- стас. За час.</t>
   </si>
   <si>
     <t>Уварово, Тамбовская обл.</t>
@@ -1327,7 +1332,7 @@
     <t>Новичихин Евгений Владимирович</t>
   </si>
   <si>
-    <t>Перерыв С 12.00  до 13.00   8-920-480-04-54 Алексей </t>
+    <t>Перерыв С 12.00  до 13.00   8-920-480-04-54 Алексей</t>
   </si>
   <si>
     <t>18 20</t>
@@ -1363,7 +1368,7 @@
     <t>,393464, Тамбовская обл, , Уварово г, , Заводская ул, 91, , , дом, корпус, кв.</t>
   </si>
   <si>
-    <t>№ 861 rtc.rscms.ru Сайт </t>
+    <t>№ 861 rtc.rscms.ru Сайт</t>
   </si>
   <si>
     <t>Реализация товаров и услуг _РТ00005392 от 15.04.2025 18:03:59</t>
@@ -1384,7 +1389,7 @@
     <t>Агрохим ООО</t>
   </si>
   <si>
-    <t>,393520, Тамбовская обл., Ржаксинский район, , Ржакса р.п., Свердлова, ул., 1, Б, , , , </t>
+    <t>,393520, Тамбовская обл., Ржаксинский район, , Ржакса р.п., Свердлова, ул., 1, Б, , , ,</t>
   </si>
   <si>
     <t>Реализация товаров и услуг _РТ00005376 от 15.04.2025 18:06:01</t>
@@ -1435,7 +1440,7 @@
     <t>Поплавский Владимир Николаевич</t>
   </si>
   <si>
-    <t>т 920-433-32-92  </t>
+    <t>т 920-433-32-92</t>
   </si>
   <si>
     <t>19 20</t>
@@ -1459,7 +1464,7 @@
     <t>,396790, Воронежская обл, Богучарский р-н, Богучар г, , Дзержинского ул, 72, , , дом, корпус, кв.</t>
   </si>
   <si>
-    <t>чек,    8-903-859-82-74  звонить за час </t>
+    <t>чек,    8-903-859-82-74  звонить за час</t>
   </si>
   <si>
     <t>Реализация товаров и услуг _РТ00005364 от 15.04.2025 19:32:44</t>
@@ -1480,7 +1485,7 @@
     <t>Манаенков О.М. ИП</t>
   </si>
   <si>
-    <t>,, Воронежская обл, Кантемировский р-н, , дорога Воронеж-Луганск 271 км. слева, Шиномонтаж на АЗС РТПК- М 8-919-185-36-77, , , </t>
+    <t>,, Воронежская обл, Кантемировский р-н, , дорога Воронеж-Луганск 271 км. слева, Шиномонтаж на АЗС РТПК- М 8-919-185-36-77, , ,</t>
   </si>
   <si>
     <t xml:space="preserve">  +7-950-764-19-37</t>
@@ -1531,7 +1536,7 @@
     <t>Реализация товаров и услуг РТ000008114 от 14.04.2025 15:53:39</t>
   </si>
   <si>
-    <t>АВАНГАРД-АГРО-Тула ООО </t>
+    <t>АВАНГАРД-АГРО-Тула ООО</t>
   </si>
   <si>
     <t>Зубков Алексей Андреевич</t>
@@ -1549,7 +1554,7 @@
     <t>Реализация товаров и услуг РТ000008295 от 15.04.2025 18:56:27</t>
   </si>
   <si>
-    <t>,399200, Липецкая обл, Задонский р-н, , Большое Панарино д, , , , </t>
+    <t>,399200, Липецкая обл, Задонский р-н, , Большое Панарино д, , , ,</t>
   </si>
   <si>
     <t>8920-541-02-17 НИКОЛАЙ</t>
@@ -1582,7 +1587,7 @@
     <t>Бобровский ЗРМ ЗАО</t>
   </si>
   <si>
-    <t>,397700, Воронежская область, Бобровский район, Бобров г., , Алексеевского ул., 14, , , , , </t>
+    <t>,397700, Воронежская область, Бобровский район, Бобров г., , Алексеевского ул., 14, , , , ,</t>
   </si>
   <si>
     <t>Красавин Юрий Иванович</t>
@@ -1648,7 +1653,7 @@
     <t>Реализация товаров и услуг _РТ00005340 от 15.04.2025 18:54:46</t>
   </si>
   <si>
-    <t>Павленко О.В. ИП (Воробьевка) </t>
+    <t>Павленко О.В. ИП (Воробьевка)</t>
   </si>
   <si>
     <t>,397570, Воронежская обл, Воробьевский р-н, , Воробьевка с, Гоголя ул, 25, , , дом, корпус, кв.</t>
@@ -1741,7 +1746,7 @@
     <t>Реализация товаров и услуг РТ000008265 от 15.04.2025 17:36:18</t>
   </si>
   <si>
-    <t>Сагуны Мясокомбинат ООО </t>
+    <t>Сагуны Мясокомбинат ООО</t>
   </si>
   <si>
     <t>,396530, Воронежская обл, Подгоренский р-н, , Красный Восход п, Заводская ул, 37, , , дом, корпус, кв.</t>
@@ -1768,7 +1773,7 @@
     <t>Реализация товаров и услуг _РТ00005363 от 15.04.2025 17:34:14</t>
   </si>
   <si>
-    <t>Козлов В.А. ИП </t>
+    <t>Козлов В.А. ИП</t>
   </si>
   <si>
     <t>,, Воронежская обл, Подгоренский р-н, , Подгоренский пгт, Энгельса ул, 39, , , дом, корпус, кв.</t>
@@ -1837,13 +1842,13 @@
     <t>Реализация товаров и услуг РТ000008244 от 15.04.2025 17:32:19</t>
   </si>
   <si>
-    <t>Решетникова И.В. ИП </t>
+    <t>Решетникова И.В. ИП</t>
   </si>
   <si>
     <t>,396650, Воронежская обл, Россошанский р-н, Россошь г, , 50 лет СССР ул, 83-Б, , , дом, корпус, кв.</t>
   </si>
   <si>
-    <t>ПЕРЕПОДПИСЬ/Кабель USB "WALKER" C565, 3.1А, Lightning, поддержка QC, черный-1/недогруз, испр по данным тсд </t>
+    <t>ПЕРЕПОДПИСЬ/Кабель USB "WALKER" C565, 3.1А, Lightning, поддержка QC, черный-1/недогруз, испр по данным тсд</t>
   </si>
   <si>
     <t>Реализация товаров и услуг РТ000008270 от 15.04.2025 17:30:58</t>
@@ -1858,7 +1863,7 @@
     <t>Реализация товаров и услуг РТ000008275 от 15.04.2025 17:30:42</t>
   </si>
   <si>
-    <t>Тищенко И.В. ИП </t>
+    <t>Тищенко И.В. ИП</t>
   </si>
   <si>
     <t>,396658, Воронежская обл, Россошанский р-н, Россошь г, , Мира ул, 141 1 этаж, , , дом, корпус, кв.</t>
@@ -1879,7 +1884,7 @@
     <t>Городское благоустройство Россошь</t>
   </si>
   <si>
-    <t>,396650, Воронежская обл, Россошанский р-н, Россошь г, , Краснознаменный пер, 1 А, , , , , </t>
+    <t>,396650, Воронежская обл, Россошанский р-н, Россошь г, , Краснознаменный пер, 1 А, , , , ,</t>
   </si>
   <si>
     <t>т 920-412-92-49  перезвонить за 1 час</t>
@@ -1888,7 +1893,7 @@
     <t>Реализация товаров и услуг РТ000008224 от 15.04.2025 17:30:11</t>
   </si>
   <si>
-    <t>Колиух Сергей Александрович ИП </t>
+    <t>Колиух Сергей Александрович ИП</t>
   </si>
   <si>
     <t>,396659, Воронежская обл, Россошанский р-н, Россошь г, , Карла Либкнехта ул, 5, , , дом, корпус, кв.</t>
@@ -2146,7 +2151,7 @@
     <t>,412309, Саратовская обл, , Балашов г, , 30 лет Победы ул, 174, , , дом, корпус, кв.</t>
   </si>
   <si>
-    <t>5W40 MOBIL  3000 SUPER  СИНТ масло   4Л-4/ возврат </t>
+    <t>5W40 MOBIL  3000 SUPER  СИНТ масло   4Л-4/ возврат</t>
   </si>
   <si>
     <t>Реализация товаров и услуг С0000000858 от 15.04.2025 17:44:58</t>
@@ -2224,59 +2229,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="50" formatCode=""/>
-    <numFmt numFmtId="51" formatCode="#,##0.000"/>
-    <numFmt numFmtId="52" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF594304"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="594304"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="true"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="000000"/>
-      <sz val="10"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="000000"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2288,26 +2268,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F5F2DD"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFF5F2DD"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FA9A"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FF00FA9A"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6C1"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFFFB6C1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -2321,16 +2301,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2339,62 +2319,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="0" fontId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="3" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="4" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="52" fontId="4" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="52" fontId="3" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="52" fontId="4" fillId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2403,39 +2383,327 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-    <pageSetUpPr autoPageBreaks="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="K237"/>
+  <dimension ref="A1:K237"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="H215" sqref="H215"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="true"/>
-    <col min="2" max="2" width="36.16796875" style="1" customWidth="true"/>
-    <col min="3" max="3" width="21" style="1" customWidth="true"/>
-    <col min="4" max="4" width="63" style="1" customWidth="true"/>
-    <col min="5" max="5" width="15.16796875" style="1" customWidth="true"/>
-    <col min="6" max="6" width="15.16796875" style="1" customWidth="true"/>
-    <col min="7" max="7" width="15.16796875" style="1" customWidth="true"/>
-    <col min="8" max="8" width="15.16796875" style="1" customWidth="true"/>
-    <col min="9" max="9" width="35" style="1" customWidth="true"/>
-    <col min="10" max="10" width="21" style="1" customWidth="true"/>
-    <col min="11" max="11" width="21" style="1" customWidth="true"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63" style="1" customWidth="1"/>
+    <col min="5" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" style="1" customWidth="1"/>
+    <col min="10" max="11" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11" customHeight="true">
+    <row r="1" spans="1:11" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2470,43 +2738,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="13" customHeight="true">
-      <c r="C2" s="3" t="n">
+    <row r="2" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" ht="11" customHeight="true" outlineLevel="1">
+    <row r="3" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>4000</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="13" customHeight="true">
+    <row r="4" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="8">
         <v>1576</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>687560</v>
       </c>
     </row>
-    <row r="5" ht="11" customHeight="true" outlineLevel="1">
+    <row r="5" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -2519,10 +2787,10 @@
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>1576</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>687560</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -2538,21 +2806,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="13" customHeight="true">
+    <row r="6" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>1311.924</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>233993</v>
       </c>
     </row>
-    <row r="7" ht="11" customHeight="true" outlineLevel="1">
+    <row r="7" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -2565,10 +2833,10 @@
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="12">
         <v>604.4</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6">
         <v>102148</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -2584,7 +2852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="11" customHeight="true" outlineLevel="1">
+    <row r="8" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -2597,10 +2865,10 @@
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>60.62</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6">
         <v>27823</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2613,7 +2881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="11" customHeight="true" outlineLevel="1">
+    <row r="9" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -2626,10 +2894,10 @@
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="12" t="n">
-        <v>270.97</v>
-      </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="12">
+        <v>270.97000000000003</v>
+      </c>
+      <c r="F9" s="6">
         <v>20694</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -2639,7 +2907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="11" customHeight="true" outlineLevel="1">
+    <row r="10" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -2652,10 +2920,10 @@
       <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="12" t="n">
-        <v>4.698</v>
-      </c>
-      <c r="F10" s="6" t="n">
+      <c r="E10" s="12">
+        <v>4.6980000000000004</v>
+      </c>
+      <c r="F10" s="6">
         <v>5700</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2665,7 +2933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="11" customHeight="true" outlineLevel="1">
+    <row r="11" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -2678,10 +2946,10 @@
       <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="12">
         <v>298.26</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>34684</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -2691,7 +2959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="11" customHeight="true" outlineLevel="1">
+    <row r="12" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2704,10 +2972,10 @@
       <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="12" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="F12" s="6" t="n">
+      <c r="E12" s="12">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F12" s="6">
         <v>5274</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2720,7 +2988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="11" customHeight="true" outlineLevel="1">
+    <row r="13" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -2733,10 +3001,10 @@
       <c r="D13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="12">
         <v>0.432</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>2918</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -2749,7 +3017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="11" customHeight="true" outlineLevel="1">
+    <row r="14" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -2762,10 +3030,10 @@
       <c r="D14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="12" t="n">
-        <v>71.925</v>
-      </c>
-      <c r="F14" s="6" t="n">
+      <c r="E14" s="12">
+        <v>71.924999999999997</v>
+      </c>
+      <c r="F14" s="6">
         <v>34752</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -2775,21 +3043,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="13" customHeight="true">
+    <row r="15" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>15</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="8">
         <v>1731.454</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>418572</v>
       </c>
     </row>
-    <row r="16" ht="11" customHeight="true" outlineLevel="1">
+    <row r="16" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -2802,10 +3070,10 @@
       <c r="D16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="12">
         <v>100.131</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="6">
         <v>12581.53</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2821,7 +3089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" ht="11" customHeight="true" outlineLevel="1">
+    <row r="17" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -2834,10 +3102,10 @@
       <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="12" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="F17" s="6" t="n">
+      <c r="E17" s="12">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F17" s="6">
         <v>8034.84</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -2850,7 +3118,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" ht="11" customHeight="true" outlineLevel="1">
+    <row r="18" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -2863,10 +3131,10 @@
       <c r="D18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="12" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="F18" s="6" t="n">
+      <c r="E18" s="12">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="F18" s="6">
         <v>36618</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -2879,7 +3147,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" ht="11" customHeight="true" outlineLevel="1">
+    <row r="19" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>52</v>
       </c>
@@ -2892,10 +3160,10 @@
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="12">
         <v>94</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="6">
         <v>41338</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2908,7 +3176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" ht="11" customHeight="true" outlineLevel="1">
+    <row r="20" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>52</v>
       </c>
@@ -2921,10 +3189,10 @@
       <c r="D20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="12">
         <v>47.3</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="6">
         <v>9599.09</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2937,7 +3205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" ht="11" customHeight="true" outlineLevel="1">
+    <row r="21" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
@@ -2947,10 +3215,10 @@
       <c r="C21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="12">
         <v>10.8</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="6">
         <v>11323</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -2963,7 +3231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+    <row r="22" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -2976,10 +3244,10 @@
       <c r="D22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="12">
         <v>185.29</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="6">
         <v>29669.5</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -2992,7 +3260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
+    <row r="23" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>52</v>
       </c>
@@ -3005,11 +3273,11 @@
       <c r="D23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="12" t="n">
-        <v>69.004</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>8387.8</v>
+      <c r="E23" s="12">
+        <v>69.004000000000005</v>
+      </c>
+      <c r="F23" s="6">
+        <v>8387.7999999999993</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>56</v>
@@ -3018,7 +3286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" ht="11" customHeight="true" outlineLevel="1">
+    <row r="24" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -3031,10 +3299,10 @@
       <c r="D24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="12">
         <v>11</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="6">
         <v>5574.6</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -3044,7 +3312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" ht="11" customHeight="true" outlineLevel="1">
+    <row r="25" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
@@ -3057,10 +3325,10 @@
       <c r="D25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="12">
         <v>6.05</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="6">
         <v>4286.5</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -3070,7 +3338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" ht="11" customHeight="true" outlineLevel="1">
+    <row r="26" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
@@ -3083,10 +3351,10 @@
       <c r="D26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="12">
         <v>22.8</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="6">
         <v>10994</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -3096,7 +3364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="11" customHeight="true" outlineLevel="1">
+    <row r="27" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
@@ -3109,10 +3377,10 @@
       <c r="D27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="12">
         <v>427.8</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="6">
         <v>120924.86</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -3122,7 +3390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="11" customHeight="true" outlineLevel="1">
+    <row r="28" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
@@ -3135,10 +3403,10 @@
       <c r="D28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="12">
         <v>156.4</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="6">
         <v>26430</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -3151,7 +3419,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" ht="11" customHeight="true" outlineLevel="1">
+    <row r="29" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>52</v>
       </c>
@@ -3164,10 +3432,10 @@
       <c r="D29" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="12">
         <v>25</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="6">
         <v>5136</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -3177,7 +3445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="11" customHeight="true" outlineLevel="1">
+    <row r="30" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -3190,10 +3458,10 @@
       <c r="D30" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="12">
         <v>20</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="6">
         <v>8466.49</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -3203,7 +3471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
+    <row r="31" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>52</v>
       </c>
@@ -3216,10 +3484,10 @@
       <c r="D31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="12" t="n">
-        <v>31.711</v>
-      </c>
-      <c r="F31" s="6" t="n">
+      <c r="E31" s="12">
+        <v>31.710999999999999</v>
+      </c>
+      <c r="F31" s="6">
         <v>5501.93</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -3229,7 +3497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
+    <row r="32" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>52</v>
       </c>
@@ -3242,10 +3510,10 @@
       <c r="D32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="12">
         <v>166.6</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="6">
         <v>26765.8</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -3255,7 +3523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" ht="11" customHeight="true" outlineLevel="1">
+    <row r="33" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>52</v>
       </c>
@@ -3268,10 +3536,10 @@
       <c r="D33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="12">
         <v>1.867</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="6">
         <v>12925.01</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -3284,7 +3552,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+    <row r="34" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>52</v>
       </c>
@@ -3297,10 +3565,10 @@
       <c r="D34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="12">
         <v>246.23</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="6">
         <v>22175.05</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -3310,7 +3578,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
+    <row r="35" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>52</v>
       </c>
@@ -3323,10 +3591,10 @@
       <c r="D35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="12" t="n">
+      <c r="E35" s="12">
         <v>74.91</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F35" s="6">
         <v>11840</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -3339,21 +3607,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" ht="13" customHeight="true">
+    <row r="36" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>13</v>
       </c>
-      <c r="E36" s="8" t="n">
-        <v>4498.287</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>638658.68</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="E36" s="8">
+        <v>4498.2870000000003</v>
+      </c>
+      <c r="F36" s="4">
+        <v>638658.68000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>119</v>
       </c>
@@ -3366,10 +3634,10 @@
       <c r="D37" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="12" t="n">
+      <c r="E37" s="12">
         <v>11.02</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F37" s="6">
         <v>24105.16</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -3382,7 +3650,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" ht="11" customHeight="true" outlineLevel="1">
+    <row r="38" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>119</v>
       </c>
@@ -3395,10 +3663,10 @@
       <c r="D38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="12" t="n">
-        <v>31.295</v>
-      </c>
-      <c r="F38" s="6" t="n">
+      <c r="E38" s="12">
+        <v>31.295000000000002</v>
+      </c>
+      <c r="F38" s="6">
         <v>5358</v>
       </c>
       <c r="G38" s="5" t="s">
@@ -3408,7 +3676,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" ht="11" customHeight="true" outlineLevel="1">
+    <row r="39" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>119</v>
       </c>
@@ -3421,10 +3689,10 @@
       <c r="D39" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="12" t="n">
+      <c r="E39" s="12">
         <v>266.86</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F39" s="6">
         <v>42430.11</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -3437,7 +3705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" ht="11" customHeight="true" outlineLevel="1">
+    <row r="40" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>119</v>
       </c>
@@ -3457,7 +3725,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+    <row r="41" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>119</v>
       </c>
@@ -3470,10 +3738,10 @@
       <c r="D41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="12" t="n">
+      <c r="E41" s="12">
         <v>0.1</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F41" s="6">
         <v>2146</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -3486,7 +3754,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
+    <row r="42" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>119</v>
       </c>
@@ -3499,10 +3767,10 @@
       <c r="D42" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="12" t="n">
+      <c r="E42" s="12">
         <v>1.36</v>
       </c>
-      <c r="F42" s="6" t="n">
+      <c r="F42" s="6">
         <v>20540</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -3515,7 +3783,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="1">
+    <row r="43" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>119</v>
       </c>
@@ -3528,10 +3796,10 @@
       <c r="D43" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="12" t="n">
+      <c r="E43" s="12">
         <v>439.2</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="6">
         <v>52491.85</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -3541,7 +3809,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" ht="11" customHeight="true" outlineLevel="1">
+    <row r="44" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>119</v>
       </c>
@@ -3554,10 +3822,10 @@
       <c r="D44" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E44" s="12" t="n">
+      <c r="E44" s="12">
         <v>131.6</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="6">
         <v>33425.82</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -3567,7 +3835,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" ht="11" customHeight="true" outlineLevel="1">
+    <row r="45" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>119</v>
       </c>
@@ -3580,10 +3848,10 @@
       <c r="D45" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="12" t="n">
+      <c r="E45" s="12">
         <v>197</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F45" s="6">
         <v>20677</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -3596,7 +3864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" ht="11" customHeight="true" outlineLevel="1">
+    <row r="46" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>119</v>
       </c>
@@ -3609,10 +3877,10 @@
       <c r="D46" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="12" t="n">
+      <c r="E46" s="12">
         <v>115</v>
       </c>
-      <c r="F46" s="6" t="n">
+      <c r="F46" s="6">
         <v>16336</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -3625,7 +3893,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" ht="11" customHeight="true" outlineLevel="1">
+    <row r="47" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>119</v>
       </c>
@@ -3638,10 +3906,10 @@
       <c r="D47" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="11" t="n">
+      <c r="E47" s="11">
         <v>2700</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F47" s="6">
         <v>300000</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -3654,7 +3922,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+    <row r="48" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>119</v>
       </c>
@@ -3667,10 +3935,10 @@
       <c r="D48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="12" t="n">
+      <c r="E48" s="12">
         <v>28</v>
       </c>
-      <c r="F48" s="6" t="n">
+      <c r="F48" s="6">
         <v>9649.4</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -3680,7 +3948,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+    <row r="49" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>119</v>
       </c>
@@ -3693,10 +3961,10 @@
       <c r="D49" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="12" t="n">
+      <c r="E49" s="12">
         <v>54</v>
       </c>
-      <c r="F49" s="6" t="n">
+      <c r="F49" s="6">
         <v>6672</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -3706,7 +3974,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" ht="11" customHeight="true" outlineLevel="1">
+    <row r="50" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>119</v>
       </c>
@@ -3719,10 +3987,10 @@
       <c r="D50" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="12" t="n">
+      <c r="E50" s="12">
         <v>26.4</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F50" s="6">
         <v>8160</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -3735,7 +4003,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+    <row r="51" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>119</v>
       </c>
@@ -3748,10 +4016,10 @@
       <c r="D51" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="12" t="n">
+      <c r="E51" s="12">
         <v>139.6</v>
       </c>
-      <c r="F51" s="6" t="n">
+      <c r="F51" s="6">
         <v>20735.64</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -3761,7 +4029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
+    <row r="52" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
@@ -3774,11 +4042,11 @@
       <c r="D52" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="12" t="n">
+      <c r="E52" s="12">
         <v>31.6</v>
       </c>
-      <c r="F52" s="6" t="n">
-        <v>5119.64</v>
+      <c r="F52" s="6">
+        <v>5119.6400000000003</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>165</v>
@@ -3790,7 +4058,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" ht="11" customHeight="true" outlineLevel="1">
+    <row r="53" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>119</v>
       </c>
@@ -3803,10 +4071,10 @@
       <c r="D53" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="12" t="n">
-        <v>36.395</v>
-      </c>
-      <c r="F53" s="6" t="n">
+      <c r="E53" s="12">
+        <v>36.395000000000003</v>
+      </c>
+      <c r="F53" s="6">
         <v>11881.74</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -3816,7 +4084,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" ht="11" customHeight="true" outlineLevel="1">
+    <row r="54" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>119</v>
       </c>
@@ -3829,10 +4097,10 @@
       <c r="D54" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="12" t="n">
+      <c r="E54" s="12">
         <v>40</v>
       </c>
-      <c r="F54" s="13" t="n">
+      <c r="F54" s="13">
         <v>624</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -3842,7 +4110,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" ht="11" customHeight="true" outlineLevel="1">
+    <row r="55" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>119</v>
       </c>
@@ -3855,10 +4123,10 @@
       <c r="D55" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E55" s="12" t="n">
+      <c r="E55" s="12">
         <v>49.31</v>
       </c>
-      <c r="F55" s="6" t="n">
+      <c r="F55" s="6">
         <v>11689.94</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -3868,7 +4136,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" ht="11" customHeight="true" outlineLevel="1">
+    <row r="56" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>119</v>
       </c>
@@ -3881,10 +4149,10 @@
       <c r="D56" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="12" t="n">
+      <c r="E56" s="12">
         <v>199.547</v>
       </c>
-      <c r="F56" s="6" t="n">
+      <c r="F56" s="6">
         <v>46616.38</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -3894,21 +4162,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" ht="13" customHeight="true">
+    <row r="57" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="3">
         <v>9</v>
       </c>
-      <c r="E57" s="14" t="n">
-        <v>795.442</v>
-      </c>
-      <c r="F57" s="4" t="n">
+      <c r="E57" s="14">
+        <v>795.44200000000001</v>
+      </c>
+      <c r="F57" s="4">
         <v>377146.81</v>
       </c>
     </row>
-    <row r="58" ht="11" customHeight="true" outlineLevel="1">
+    <row r="58" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>176</v>
       </c>
@@ -3921,10 +4189,10 @@
       <c r="D58" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="12" t="n">
+      <c r="E58" s="12">
         <v>4.8</v>
       </c>
-      <c r="F58" s="6" t="n">
+      <c r="F58" s="6">
         <v>6486</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -3937,7 +4205,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" ht="11" customHeight="true" outlineLevel="1">
+    <row r="59" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>176</v>
       </c>
@@ -3950,10 +4218,10 @@
       <c r="D59" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="12" t="n">
+      <c r="E59" s="12">
         <v>1.6</v>
       </c>
-      <c r="F59" s="6" t="n">
+      <c r="F59" s="6">
         <v>3111</v>
       </c>
       <c r="G59" s="5" t="s">
@@ -3963,7 +4231,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" ht="11" customHeight="true" outlineLevel="1">
+    <row r="60" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>176</v>
       </c>
@@ -3976,10 +4244,10 @@
       <c r="D60" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="12" t="n">
+      <c r="E60" s="12">
         <v>197</v>
       </c>
-      <c r="F60" s="6" t="n">
+      <c r="F60" s="6">
         <v>57894</v>
       </c>
       <c r="G60" s="5" t="s">
@@ -3989,7 +4257,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" ht="11" customHeight="true" outlineLevel="1">
+    <row r="61" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>176</v>
       </c>
@@ -4002,10 +4270,10 @@
       <c r="D61" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="12" t="n">
+      <c r="E61" s="12">
         <v>87.84</v>
       </c>
-      <c r="F61" s="6" t="n">
+      <c r="F61" s="6">
         <v>73666</v>
       </c>
       <c r="G61" s="5" t="s">
@@ -4015,7 +4283,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" ht="11" customHeight="true" outlineLevel="1">
+    <row r="62" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>176</v>
       </c>
@@ -4028,10 +4296,10 @@
       <c r="D62" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="12" t="n">
-        <v>41.563</v>
-      </c>
-      <c r="F62" s="6" t="n">
+      <c r="E62" s="12">
+        <v>41.563000000000002</v>
+      </c>
+      <c r="F62" s="6">
         <v>77264</v>
       </c>
       <c r="G62" s="5" t="s">
@@ -4044,7 +4312,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" ht="11" customHeight="true" outlineLevel="1">
+    <row r="63" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>176</v>
       </c>
@@ -4057,10 +4325,10 @@
       <c r="D63" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E63" s="12" t="n">
+      <c r="E63" s="12">
         <v>113.95</v>
       </c>
-      <c r="F63" s="6" t="n">
+      <c r="F63" s="6">
         <v>30979</v>
       </c>
       <c r="G63" s="5" t="s">
@@ -4070,7 +4338,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" ht="11" customHeight="true" outlineLevel="1">
+    <row r="64" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>176</v>
       </c>
@@ -4083,10 +4351,10 @@
       <c r="D64" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E64" s="12" t="n">
+      <c r="E64" s="12">
         <v>109</v>
       </c>
-      <c r="F64" s="6" t="n">
+      <c r="F64" s="6">
         <v>22653</v>
       </c>
       <c r="G64" s="5" t="s">
@@ -4096,7 +4364,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" ht="11" customHeight="true" outlineLevel="1">
+    <row r="65" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>176</v>
       </c>
@@ -4109,10 +4377,10 @@
       <c r="D65" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="12" t="n">
+      <c r="E65" s="12">
         <v>120</v>
       </c>
-      <c r="F65" s="6" t="n">
+      <c r="F65" s="6">
         <v>24863</v>
       </c>
       <c r="G65" s="5" t="s">
@@ -4122,7 +4390,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" ht="11" customHeight="true" outlineLevel="1">
+    <row r="66" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>176</v>
       </c>
@@ -4135,10 +4403,10 @@
       <c r="D66" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="12" t="n">
-        <v>48.289</v>
-      </c>
-      <c r="F66" s="6" t="n">
+      <c r="E66" s="12">
+        <v>48.289000000000001</v>
+      </c>
+      <c r="F66" s="6">
         <v>41720</v>
       </c>
       <c r="G66" s="5" t="s">
@@ -4151,7 +4419,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" ht="11" customHeight="true" outlineLevel="1">
+    <row r="67" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>176</v>
       </c>
@@ -4164,10 +4432,10 @@
       <c r="D67" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E67" s="17" t="n">
+      <c r="E67" s="17">
         <v>63.5</v>
       </c>
-      <c r="F67" s="18" t="n">
+      <c r="F67" s="18">
         <v>21928.81</v>
       </c>
       <c r="G67" s="16" t="s">
@@ -4176,11 +4444,11 @@
       <c r="H67" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="I67" s="16" t="e"/>
-      <c r="J67" s="16" t="e"/>
-      <c r="K67" s="16" t="e"/>
-    </row>
-    <row r="68" ht="11" customHeight="true" outlineLevel="1">
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>176</v>
       </c>
@@ -4190,10 +4458,10 @@
       <c r="C68" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E68" s="12" t="n">
+      <c r="E68" s="12">
         <v>0.6</v>
       </c>
-      <c r="F68" s="6" t="n">
+      <c r="F68" s="6">
         <v>3330</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -4206,7 +4474,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" ht="11" customHeight="true" outlineLevel="1">
+    <row r="69" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>176</v>
       </c>
@@ -4216,10 +4484,10 @@
       <c r="C69" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E69" s="12" t="n">
+      <c r="E69" s="12">
         <v>5</v>
       </c>
-      <c r="F69" s="6" t="n">
+      <c r="F69" s="6">
         <v>7250</v>
       </c>
       <c r="G69" s="5" t="s">
@@ -4232,7 +4500,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" ht="11" customHeight="true" outlineLevel="1">
+    <row r="70" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>176</v>
       </c>
@@ -4242,10 +4510,10 @@
       <c r="C70" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E70" s="12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F70" s="6" t="n">
+      <c r="E70" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F70" s="6">
         <v>6002</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -4258,21 +4526,21 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" ht="13" customHeight="true">
+    <row r="71" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="3" t="n">
+      <c r="C71" s="3">
         <v>17</v>
       </c>
-      <c r="E71" s="8" t="n">
-        <v>2379.301</v>
-      </c>
-      <c r="F71" s="4" t="n">
+      <c r="E71" s="8">
+        <v>2379.3009999999999</v>
+      </c>
+      <c r="F71" s="4">
         <v>464150</v>
       </c>
     </row>
-    <row r="72" ht="11" customHeight="true" outlineLevel="1">
+    <row r="72" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>218</v>
       </c>
@@ -4285,10 +4553,10 @@
       <c r="D72" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E72" s="12" t="n">
+      <c r="E72" s="12">
         <v>198</v>
       </c>
-      <c r="F72" s="6" t="n">
+      <c r="F72" s="6">
         <v>38930</v>
       </c>
       <c r="G72" s="5" t="s">
@@ -4301,7 +4569,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" ht="11" customHeight="true" outlineLevel="1">
+    <row r="73" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>218</v>
       </c>
@@ -4314,10 +4582,10 @@
       <c r="D73" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="12" t="n">
-        <v>325.356</v>
-      </c>
-      <c r="F73" s="6" t="n">
+      <c r="E73" s="12">
+        <v>325.35599999999999</v>
+      </c>
+      <c r="F73" s="6">
         <v>60129</v>
       </c>
       <c r="G73" s="5" t="s">
@@ -4330,7 +4598,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="11" customHeight="true" outlineLevel="1">
+    <row r="74" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>218</v>
       </c>
@@ -4343,10 +4611,10 @@
       <c r="D74" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E74" s="12" t="n">
+      <c r="E74" s="12">
         <v>53.28</v>
       </c>
-      <c r="F74" s="6" t="n">
+      <c r="F74" s="6">
         <v>7546</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -4359,7 +4627,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" ht="11" customHeight="true" outlineLevel="1">
+    <row r="75" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>218</v>
       </c>
@@ -4372,10 +4640,10 @@
       <c r="D75" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E75" s="12" t="n">
+      <c r="E75" s="12">
         <v>51.52</v>
       </c>
-      <c r="F75" s="6" t="n">
+      <c r="F75" s="6">
         <v>5514</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -4388,7 +4656,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
+    <row r="76" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>218</v>
       </c>
@@ -4401,10 +4669,10 @@
       <c r="D76" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E76" s="12" t="n">
-        <v>283.79</v>
-      </c>
-      <c r="F76" s="6" t="n">
+      <c r="E76" s="12">
+        <v>283.79000000000002</v>
+      </c>
+      <c r="F76" s="6">
         <v>46996</v>
       </c>
       <c r="G76" s="5" t="s">
@@ -4414,7 +4682,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" ht="11" customHeight="true" outlineLevel="1">
+    <row r="77" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>218</v>
       </c>
@@ -4427,10 +4695,10 @@
       <c r="D77" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E77" s="12" t="n">
+      <c r="E77" s="12">
         <v>77</v>
       </c>
-      <c r="F77" s="6" t="n">
+      <c r="F77" s="6">
         <v>14336</v>
       </c>
       <c r="G77" s="5" t="s">
@@ -4440,7 +4708,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" ht="11" customHeight="true" outlineLevel="1">
+    <row r="78" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>218</v>
       </c>
@@ -4453,10 +4721,10 @@
       <c r="D78" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E78" s="12" t="n">
+      <c r="E78" s="12">
         <v>4</v>
       </c>
-      <c r="F78" s="6" t="n">
+      <c r="F78" s="6">
         <v>2550</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -4466,7 +4734,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" ht="11" customHeight="true" outlineLevel="1">
+    <row r="79" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>218</v>
       </c>
@@ -4489,7 +4757,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="80" ht="11" customHeight="true" outlineLevel="1">
+    <row r="80" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>218</v>
       </c>
@@ -4502,10 +4770,10 @@
       <c r="D80" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E80" s="12" t="n">
+      <c r="E80" s="12">
         <v>16</v>
       </c>
-      <c r="F80" s="6" t="n">
+      <c r="F80" s="6">
         <v>10520</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -4515,7 +4783,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" ht="11" customHeight="true" outlineLevel="1">
+    <row r="81" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>218</v>
       </c>
@@ -4528,10 +4796,10 @@
       <c r="D81" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E81" s="12" t="n">
+      <c r="E81" s="12">
         <v>169.28</v>
       </c>
-      <c r="F81" s="6" t="n">
+      <c r="F81" s="6">
         <v>63066</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -4544,7 +4812,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
+    <row r="82" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>218</v>
       </c>
@@ -4557,10 +4825,10 @@
       <c r="D82" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E82" s="12" t="n">
+      <c r="E82" s="12">
         <v>101.96</v>
       </c>
-      <c r="F82" s="6" t="n">
+      <c r="F82" s="6">
         <v>44732</v>
       </c>
       <c r="G82" s="5" t="s">
@@ -4570,7 +4838,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+    <row r="83" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>218</v>
       </c>
@@ -4583,10 +4851,10 @@
       <c r="D83" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E83" s="12" t="n">
+      <c r="E83" s="12">
         <v>60</v>
       </c>
-      <c r="F83" s="6" t="n">
+      <c r="F83" s="6">
         <v>12240</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -4596,7 +4864,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
+    <row r="84" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>218</v>
       </c>
@@ -4609,10 +4877,10 @@
       <c r="D84" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E84" s="12" t="n">
+      <c r="E84" s="12">
         <v>198</v>
       </c>
-      <c r="F84" s="6" t="n">
+      <c r="F84" s="6">
         <v>25510</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -4625,7 +4893,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" ht="11" customHeight="true" outlineLevel="1">
+    <row r="85" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>218</v>
       </c>
@@ -4638,10 +4906,10 @@
       <c r="D85" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E85" s="12" t="n">
+      <c r="E85" s="12">
         <v>5</v>
       </c>
-      <c r="F85" s="6" t="n">
+      <c r="F85" s="6">
         <v>1748</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -4654,7 +4922,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+    <row r="86" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>218</v>
       </c>
@@ -4667,10 +4935,10 @@
       <c r="D86" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E86" s="12" t="n">
+      <c r="E86" s="12">
         <v>394</v>
       </c>
-      <c r="F86" s="6" t="n">
+      <c r="F86" s="6">
         <v>58910</v>
       </c>
       <c r="G86" s="5" t="s">
@@ -4680,7 +4948,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+    <row r="87" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>218</v>
       </c>
@@ -4693,10 +4961,10 @@
       <c r="D87" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E87" s="12" t="n">
+      <c r="E87" s="12">
         <v>21.3</v>
       </c>
-      <c r="F87" s="6" t="n">
+      <c r="F87" s="6">
         <v>6313</v>
       </c>
       <c r="G87" s="5" t="s">
@@ -4706,7 +4974,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" ht="11" customHeight="true" outlineLevel="1">
+    <row r="88" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>218</v>
       </c>
@@ -4719,10 +4987,10 @@
       <c r="D88" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E88" s="12" t="n">
-        <v>70.9</v>
-      </c>
-      <c r="F88" s="6" t="n">
+      <c r="E88" s="12">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F88" s="6">
         <v>16160</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -4732,7 +5000,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" ht="11" customHeight="true" outlineLevel="1">
+    <row r="89" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>218</v>
       </c>
@@ -4742,10 +5010,10 @@
       <c r="C89" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E89" s="12" t="n">
+      <c r="E89" s="12">
         <v>197</v>
       </c>
-      <c r="F89" s="6" t="n">
+      <c r="F89" s="6">
         <v>35000</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -4758,7 +5026,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
+    <row r="90" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>218</v>
       </c>
@@ -4771,10 +5039,10 @@
       <c r="D90" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E90" s="12" t="n">
-        <v>152.915</v>
-      </c>
-      <c r="F90" s="6" t="n">
+      <c r="E90" s="12">
+        <v>152.91499999999999</v>
+      </c>
+      <c r="F90" s="6">
         <v>13950</v>
       </c>
       <c r="G90" s="5" t="s">
@@ -4784,21 +5052,21 @@
         <v>222</v>
       </c>
     </row>
-    <row r="91" ht="13" customHeight="true">
+    <row r="91" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C91" s="3" t="n">
+      <c r="C91" s="3">
         <v>7</v>
       </c>
-      <c r="E91" s="8" t="n">
+      <c r="E91" s="8">
         <v>1930.579</v>
       </c>
-      <c r="F91" s="4" t="n">
+      <c r="F91" s="4">
         <v>392695</v>
       </c>
     </row>
-    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+    <row r="92" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>280</v>
       </c>
@@ -4824,7 +5092,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="11" customHeight="true" outlineLevel="1">
+    <row r="93" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>280</v>
       </c>
@@ -4837,10 +5105,10 @@
       <c r="D93" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E93" s="12" t="n">
-        <v>64.79</v>
-      </c>
-      <c r="F93" s="6" t="n">
+      <c r="E93" s="12">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="F93" s="6">
         <v>35236</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -4850,7 +5118,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" ht="11" customHeight="true" outlineLevel="1">
+    <row r="94" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>280</v>
       </c>
@@ -4863,10 +5131,10 @@
       <c r="D94" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E94" s="12" t="n">
+      <c r="E94" s="12">
         <v>845</v>
       </c>
-      <c r="F94" s="6" t="n">
+      <c r="F94" s="6">
         <v>219500</v>
       </c>
       <c r="G94" s="5" t="s">
@@ -4879,7 +5147,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="11" customHeight="true" outlineLevel="1">
+    <row r="95" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>280</v>
       </c>
@@ -4892,10 +5160,10 @@
       <c r="D95" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E95" s="12" t="n">
+      <c r="E95" s="12">
         <v>17.035</v>
       </c>
-      <c r="F95" s="6" t="n">
+      <c r="F95" s="6">
         <v>5530</v>
       </c>
       <c r="G95" s="5" t="s">
@@ -4905,7 +5173,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
+    <row r="96" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>280</v>
       </c>
@@ -4918,10 +5186,10 @@
       <c r="D96" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E96" s="12" t="n">
+      <c r="E96" s="12">
         <v>197</v>
       </c>
-      <c r="F96" s="6" t="n">
+      <c r="F96" s="6">
         <v>26908</v>
       </c>
       <c r="G96" s="5" t="s">
@@ -4934,7 +5202,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" ht="11" customHeight="true" outlineLevel="1">
+    <row r="97" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>280</v>
       </c>
@@ -4957,7 +5225,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" ht="11" customHeight="true" outlineLevel="1">
+    <row r="98" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>280</v>
       </c>
@@ -4970,10 +5238,10 @@
       <c r="D98" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E98" s="12" t="n">
-        <v>15.114</v>
-      </c>
-      <c r="F98" s="6" t="n">
+      <c r="E98" s="12">
+        <v>15.114000000000001</v>
+      </c>
+      <c r="F98" s="6">
         <v>8833</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -4983,7 +5251,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="99" ht="11" customHeight="true" outlineLevel="1">
+    <row r="99" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>280</v>
       </c>
@@ -4996,10 +5264,10 @@
       <c r="D99" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E99" s="12" t="n">
+      <c r="E99" s="12">
         <v>200.64</v>
       </c>
-      <c r="F99" s="6" t="n">
+      <c r="F99" s="6">
         <v>22933</v>
       </c>
       <c r="G99" s="5" t="s">
@@ -5009,7 +5277,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
+    <row r="100" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>280</v>
       </c>
@@ -5019,10 +5287,10 @@
       <c r="C100" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E100" s="12" t="n">
+      <c r="E100" s="12">
         <v>591</v>
       </c>
-      <c r="F100" s="6" t="n">
+      <c r="F100" s="6">
         <v>73755</v>
       </c>
       <c r="G100" s="5" t="s">
@@ -5038,21 +5306,21 @@
         <v>311</v>
       </c>
     </row>
-    <row r="101" ht="13" customHeight="true">
+    <row r="101" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C101" s="3" t="n">
+      <c r="C101" s="3">
         <v>9</v>
       </c>
-      <c r="E101" s="14" t="n">
+      <c r="E101" s="14">
         <v>827.721</v>
       </c>
-      <c r="F101" s="4" t="n">
+      <c r="F101" s="4">
         <v>177771.83</v>
       </c>
     </row>
-    <row r="102" ht="11" customHeight="true" outlineLevel="1">
+    <row r="102" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>312</v>
       </c>
@@ -5065,10 +5333,10 @@
       <c r="D102" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E102" s="17" t="n">
+      <c r="E102" s="17">
         <v>40.15</v>
       </c>
-      <c r="F102" s="18" t="n">
+      <c r="F102" s="18">
         <v>24448.86</v>
       </c>
       <c r="G102" s="16" t="s">
@@ -5077,13 +5345,13 @@
       <c r="H102" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="I102" s="16" t="e"/>
-      <c r="J102" s="16" t="e"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
       <c r="K102" s="16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="103" ht="11" customHeight="true" outlineLevel="1">
+    <row r="103" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>312</v>
       </c>
@@ -5096,10 +5364,10 @@
       <c r="D103" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E103" s="12" t="n">
+      <c r="E103" s="12">
         <v>95.65</v>
       </c>
-      <c r="F103" s="6" t="n">
+      <c r="F103" s="6">
         <v>28738</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -5112,7 +5380,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="104" ht="11" customHeight="true" outlineLevel="1">
+    <row r="104" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>312</v>
       </c>
@@ -5125,10 +5393,10 @@
       <c r="D104" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E104" s="12" t="n">
+      <c r="E104" s="12">
         <v>108.5</v>
       </c>
-      <c r="F104" s="6" t="n">
+      <c r="F104" s="6">
         <v>14832</v>
       </c>
       <c r="G104" s="5" t="s">
@@ -5141,7 +5409,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" ht="11" customHeight="true" outlineLevel="1">
+    <row r="105" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>312</v>
       </c>
@@ -5154,10 +5422,10 @@
       <c r="D105" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E105" s="12" t="n">
+      <c r="E105" s="12">
         <v>98.9</v>
       </c>
-      <c r="F105" s="6" t="n">
+      <c r="F105" s="6">
         <v>19080.43</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -5167,7 +5435,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="106" ht="11" customHeight="true" outlineLevel="1">
+    <row r="106" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
         <v>312</v>
       </c>
@@ -5180,10 +5448,10 @@
       <c r="D106" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="17" t="n">
+      <c r="E106" s="17">
         <v>26.77</v>
       </c>
-      <c r="F106" s="18" t="n">
+      <c r="F106" s="18">
         <v>7651.62</v>
       </c>
       <c r="G106" s="16" t="s">
@@ -5195,10 +5463,10 @@
       <c r="I106" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="J106" s="16" t="e"/>
-      <c r="K106" s="16" t="e"/>
-    </row>
-    <row r="107" ht="11" customHeight="true" outlineLevel="1">
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+    </row>
+    <row r="107" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>312</v>
       </c>
@@ -5211,11 +5479,11 @@
       <c r="D107" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="E107" s="17" t="n">
+      <c r="E107" s="17">
         <v>11.45</v>
       </c>
-      <c r="F107" s="18" t="n">
-        <v>17399.81</v>
+      <c r="F107" s="18">
+        <v>17399.810000000001</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>206</v>
@@ -5223,11 +5491,11 @@
       <c r="H107" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="I107" s="16" t="e"/>
-      <c r="J107" s="16" t="e"/>
-      <c r="K107" s="16" t="e"/>
-    </row>
-    <row r="108" ht="11" customHeight="true" outlineLevel="1">
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+    </row>
+    <row r="108" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>312</v>
       </c>
@@ -5240,10 +5508,10 @@
       <c r="D108" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E108" s="12" t="n">
+      <c r="E108" s="12">
         <v>21</v>
       </c>
-      <c r="F108" s="6" t="n">
+      <c r="F108" s="6">
         <v>6588</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -5253,7 +5521,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="109" ht="11" customHeight="true" outlineLevel="1">
+    <row r="109" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>312</v>
       </c>
@@ -5266,10 +5534,10 @@
       <c r="D109" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E109" s="12" t="n">
+      <c r="E109" s="12">
         <v>408</v>
       </c>
-      <c r="F109" s="6" t="n">
+      <c r="F109" s="6">
         <v>52368</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -5282,7 +5550,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
+    <row r="110" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
         <v>312</v>
       </c>
@@ -5295,10 +5563,10 @@
       <c r="D110" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="17" t="n">
-        <v>17.301</v>
-      </c>
-      <c r="F110" s="18" t="n">
+      <c r="E110" s="17">
+        <v>17.300999999999998</v>
+      </c>
+      <c r="F110" s="18">
         <v>6665.11</v>
       </c>
       <c r="G110" s="16" t="s">
@@ -5307,25 +5575,25 @@
       <c r="H110" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="I110" s="16" t="e"/>
-      <c r="J110" s="16" t="e"/>
-      <c r="K110" s="16" t="e"/>
-    </row>
-    <row r="111" ht="13" customHeight="true">
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+    </row>
+    <row r="111" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="3">
         <v>10</v>
       </c>
-      <c r="E111" s="8" t="n">
+      <c r="E111" s="8">
         <v>1633.943</v>
       </c>
-      <c r="F111" s="4" t="n">
+      <c r="F111" s="4">
         <v>366844.46</v>
       </c>
     </row>
-    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+    <row r="112" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>347</v>
       </c>
@@ -5338,10 +5606,10 @@
       <c r="D112" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="E112" s="17" t="n">
-        <v>685.333</v>
-      </c>
-      <c r="F112" s="18" t="n">
+      <c r="E112" s="17">
+        <v>685.33299999999997</v>
+      </c>
+      <c r="F112" s="18">
         <v>181267</v>
       </c>
       <c r="G112" s="16" t="s">
@@ -5350,13 +5618,13 @@
       <c r="H112" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="I112" s="16" t="e"/>
-      <c r="J112" s="16" t="e"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
       <c r="K112" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
+    <row r="113" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>347</v>
       </c>
@@ -5369,10 +5637,10 @@
       <c r="D113" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E113" s="12" t="n">
+      <c r="E113" s="12">
         <v>24</v>
       </c>
-      <c r="F113" s="6" t="n">
+      <c r="F113" s="6">
         <v>6300</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -5382,7 +5650,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" ht="11" customHeight="true" outlineLevel="1">
+    <row r="114" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>347</v>
       </c>
@@ -5395,10 +5663,10 @@
       <c r="D114" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E114" s="12" t="n">
+      <c r="E114" s="12">
         <v>28.8</v>
       </c>
-      <c r="F114" s="6" t="n">
+      <c r="F114" s="6">
         <v>22680</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -5411,7 +5679,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
+    <row r="115" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>347</v>
       </c>
@@ -5424,10 +5692,10 @@
       <c r="D115" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E115" s="12" t="n">
+      <c r="E115" s="12">
         <v>306</v>
       </c>
-      <c r="F115" s="6" t="n">
+      <c r="F115" s="6">
         <v>60060</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -5440,7 +5708,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" ht="11" customHeight="true" outlineLevel="1">
+    <row r="116" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>347</v>
       </c>
@@ -5453,10 +5721,10 @@
       <c r="D116" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E116" s="12" t="n">
-        <v>79.96</v>
-      </c>
-      <c r="F116" s="6" t="n">
+      <c r="E116" s="12">
+        <v>79.959999999999994</v>
+      </c>
+      <c r="F116" s="6">
         <v>8455</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -5466,7 +5734,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="117" ht="11" customHeight="true" outlineLevel="1">
+    <row r="117" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>347</v>
       </c>
@@ -5479,10 +5747,10 @@
       <c r="D117" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E117" s="12" t="n">
+      <c r="E117" s="12">
         <v>218</v>
       </c>
-      <c r="F117" s="6" t="n">
+      <c r="F117" s="6">
         <v>32651</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -5492,7 +5760,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
+    <row r="118" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>347</v>
       </c>
@@ -5505,10 +5773,10 @@
       <c r="D118" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E118" s="12" t="n">
+      <c r="E118" s="12">
         <v>37.6</v>
       </c>
-      <c r="F118" s="6" t="n">
+      <c r="F118" s="6">
         <v>7141</v>
       </c>
       <c r="G118" s="5" t="s">
@@ -5518,7 +5786,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
+    <row r="119" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>347</v>
       </c>
@@ -5531,10 +5799,10 @@
       <c r="D119" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E119" s="12" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="F119" s="6" t="n">
+      <c r="E119" s="12">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F119" s="6">
         <v>12247</v>
       </c>
       <c r="G119" s="5" t="s">
@@ -5544,7 +5812,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="120" ht="11" customHeight="true" outlineLevel="1">
+    <row r="120" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
         <v>347</v>
       </c>
@@ -5557,10 +5825,10 @@
       <c r="D120" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="E120" s="17" t="n">
+      <c r="E120" s="17">
         <v>40</v>
       </c>
-      <c r="F120" s="18" t="n">
+      <c r="F120" s="18">
         <v>10822.46</v>
       </c>
       <c r="G120" s="16" t="s">
@@ -5569,11 +5837,11 @@
       <c r="H120" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="I120" s="16" t="e"/>
-      <c r="J120" s="16" t="e"/>
-      <c r="K120" s="16" t="e"/>
-    </row>
-    <row r="121" ht="11" customHeight="true" outlineLevel="1">
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+    </row>
+    <row r="121" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>347</v>
       </c>
@@ -5586,10 +5854,10 @@
       <c r="D121" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E121" s="12" t="n">
+      <c r="E121" s="12">
         <v>60.59</v>
       </c>
-      <c r="F121" s="6" t="n">
+      <c r="F121" s="6">
         <v>4180</v>
       </c>
       <c r="G121" s="5" t="s">
@@ -5599,7 +5867,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="122" ht="11" customHeight="true" outlineLevel="1">
+    <row r="122" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>347</v>
       </c>
@@ -5612,10 +5880,10 @@
       <c r="D122" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E122" s="12" t="n">
+      <c r="E122" s="12">
         <v>43.86</v>
       </c>
-      <c r="F122" s="6" t="n">
+      <c r="F122" s="6">
         <v>15027</v>
       </c>
       <c r="G122" s="5" t="s">
@@ -5625,7 +5893,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="123" ht="11" customHeight="true" outlineLevel="1">
+    <row r="123" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>347</v>
       </c>
@@ -5638,10 +5906,10 @@
       <c r="D123" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E123" s="12" t="n">
+      <c r="E123" s="12">
         <v>69</v>
       </c>
-      <c r="F123" s="6" t="n">
+      <c r="F123" s="6">
         <v>6014</v>
       </c>
       <c r="G123" s="5" t="s">
@@ -5651,21 +5919,21 @@
         <v>352</v>
       </c>
     </row>
-    <row r="124" ht="13" customHeight="true">
+    <row r="124" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C124" s="3" t="n">
+      <c r="C124" s="3">
         <v>14</v>
       </c>
-      <c r="E124" s="8" t="n">
-        <v>3128.188</v>
-      </c>
-      <c r="F124" s="4" t="n">
+      <c r="E124" s="8">
+        <v>3128.1880000000001</v>
+      </c>
+      <c r="F124" s="4">
         <v>670733</v>
       </c>
     </row>
-    <row r="125" ht="11" customHeight="true" outlineLevel="1">
+    <row r="125" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>384</v>
       </c>
@@ -5675,10 +5943,10 @@
       <c r="C125" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E125" s="12" t="n">
+      <c r="E125" s="12">
         <v>197</v>
       </c>
-      <c r="F125" s="6" t="n">
+      <c r="F125" s="6">
         <v>45800</v>
       </c>
       <c r="G125" s="5" t="s">
@@ -5694,7 +5962,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="126" ht="11" customHeight="true" outlineLevel="1">
+    <row r="126" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>384</v>
       </c>
@@ -5707,10 +5975,10 @@
       <c r="D126" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E126" s="12" t="n">
+      <c r="E126" s="12">
         <v>284.3</v>
       </c>
-      <c r="F126" s="6" t="n">
+      <c r="F126" s="6">
         <v>59487</v>
       </c>
       <c r="G126" s="5" t="s">
@@ -5720,7 +5988,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="127" ht="11" customHeight="true" outlineLevel="1">
+    <row r="127" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>384</v>
       </c>
@@ -5733,10 +6001,10 @@
       <c r="D127" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E127" s="12" t="n">
+      <c r="E127" s="12">
         <v>728</v>
       </c>
-      <c r="F127" s="6" t="n">
+      <c r="F127" s="6">
         <v>178972</v>
       </c>
       <c r="G127" s="5" t="s">
@@ -5746,7 +6014,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" ht="11" customHeight="true" outlineLevel="1">
+    <row r="128" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>384</v>
       </c>
@@ -5759,10 +6027,10 @@
       <c r="D128" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E128" s="12" t="n">
+      <c r="E128" s="12">
         <v>138</v>
       </c>
-      <c r="F128" s="6" t="n">
+      <c r="F128" s="6">
         <v>33224</v>
       </c>
       <c r="G128" s="5" t="s">
@@ -5772,7 +6040,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
+    <row r="129" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>384</v>
       </c>
@@ -5785,10 +6053,10 @@
       <c r="D129" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E129" s="12" t="n">
+      <c r="E129" s="12">
         <v>307</v>
       </c>
-      <c r="F129" s="6" t="n">
+      <c r="F129" s="6">
         <v>27125</v>
       </c>
       <c r="G129" s="5" t="s">
@@ -5798,7 +6066,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" ht="11" customHeight="true" outlineLevel="1">
+    <row r="130" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>384</v>
       </c>
@@ -5811,10 +6079,10 @@
       <c r="D130" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E130" s="12" t="n">
+      <c r="E130" s="12">
         <v>105.008</v>
       </c>
-      <c r="F130" s="6" t="n">
+      <c r="F130" s="6">
         <v>29449</v>
       </c>
       <c r="G130" s="5" t="s">
@@ -5824,7 +6092,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" ht="11" customHeight="true" outlineLevel="1">
+    <row r="131" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>384</v>
       </c>
@@ -5837,10 +6105,10 @@
       <c r="D131" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E131" s="12" t="n">
+      <c r="E131" s="12">
         <v>16</v>
       </c>
-      <c r="F131" s="6" t="n">
+      <c r="F131" s="6">
         <v>7448</v>
       </c>
       <c r="G131" s="5" t="s">
@@ -5850,7 +6118,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="132" ht="11" customHeight="true" outlineLevel="1">
+    <row r="132" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>384</v>
       </c>
@@ -5863,10 +6131,10 @@
       <c r="D132" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E132" s="12" t="n">
+      <c r="E132" s="12">
         <v>234.4</v>
       </c>
-      <c r="F132" s="6" t="n">
+      <c r="F132" s="6">
         <v>49188</v>
       </c>
       <c r="G132" s="5" t="s">
@@ -5876,7 +6144,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
+    <row r="133" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>384</v>
       </c>
@@ -5886,10 +6154,10 @@
       <c r="C133" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E133" s="12" t="n">
+      <c r="E133" s="12">
         <v>197</v>
       </c>
-      <c r="F133" s="6" t="n">
+      <c r="F133" s="6">
         <v>21500</v>
       </c>
       <c r="G133" s="5" t="s">
@@ -5902,7 +6170,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="11" customHeight="true" outlineLevel="1">
+    <row r="134" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>384</v>
       </c>
@@ -5915,10 +6183,10 @@
       <c r="D134" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E134" s="12" t="n">
+      <c r="E134" s="12">
         <v>23</v>
       </c>
-      <c r="F134" s="6" t="n">
+      <c r="F134" s="6">
         <v>13050</v>
       </c>
       <c r="G134" s="5" t="s">
@@ -5928,7 +6196,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" ht="11" customHeight="true" outlineLevel="1">
+    <row r="135" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>384</v>
       </c>
@@ -5941,10 +6209,10 @@
       <c r="D135" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E135" s="12" t="n">
+      <c r="E135" s="12">
         <v>85</v>
       </c>
-      <c r="F135" s="6" t="n">
+      <c r="F135" s="6">
         <v>20400</v>
       </c>
       <c r="G135" s="5" t="s">
@@ -5957,7 +6225,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="136" ht="11" customHeight="true" outlineLevel="1">
+    <row r="136" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>384</v>
       </c>
@@ -5970,10 +6238,10 @@
       <c r="D136" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="E136" s="12" t="n">
+      <c r="E136" s="12">
         <v>22.48</v>
       </c>
-      <c r="F136" s="6" t="n">
+      <c r="F136" s="6">
         <v>7041</v>
       </c>
       <c r="G136" s="5" t="s">
@@ -5983,7 +6251,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" ht="11" customHeight="true" outlineLevel="1">
+    <row r="137" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>384</v>
       </c>
@@ -5996,10 +6264,10 @@
       <c r="D137" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E137" s="12" t="n">
+      <c r="E137" s="12">
         <v>302</v>
       </c>
-      <c r="F137" s="6" t="n">
+      <c r="F137" s="6">
         <v>27700</v>
       </c>
       <c r="G137" s="5" t="s">
@@ -6009,7 +6277,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" ht="11" customHeight="true" outlineLevel="1">
+    <row r="138" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>384</v>
       </c>
@@ -6022,10 +6290,10 @@
       <c r="D138" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="E138" s="12" t="n">
+      <c r="E138" s="12">
         <v>29</v>
       </c>
-      <c r="F138" s="6" t="n">
+      <c r="F138" s="6">
         <v>5660</v>
       </c>
       <c r="G138" s="5" t="s">
@@ -6035,7 +6303,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="139" ht="11" customHeight="true" outlineLevel="1">
+    <row r="139" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>384</v>
       </c>
@@ -6045,10 +6313,10 @@
       <c r="C139" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E139" s="12" t="n">
+      <c r="E139" s="12">
         <v>460</v>
       </c>
-      <c r="F139" s="6" t="n">
+      <c r="F139" s="6">
         <v>144689</v>
       </c>
       <c r="G139" s="5" t="s">
@@ -6061,21 +6329,21 @@
         <v>430</v>
       </c>
     </row>
-    <row r="140" ht="13" customHeight="true">
+    <row r="140" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="C140" s="3">
         <v>9</v>
       </c>
-      <c r="E140" s="8" t="n">
-        <v>3790.601</v>
-      </c>
-      <c r="F140" s="4" t="n">
+      <c r="E140" s="8">
+        <v>3790.6010000000001</v>
+      </c>
+      <c r="F140" s="4">
         <v>662699</v>
       </c>
     </row>
-    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+    <row r="141" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>431</v>
       </c>
@@ -6088,10 +6356,10 @@
       <c r="D141" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E141" s="12" t="n">
-        <v>302.46</v>
-      </c>
-      <c r="F141" s="6" t="n">
+      <c r="E141" s="12">
+        <v>302.45999999999998</v>
+      </c>
+      <c r="F141" s="6">
         <v>53820</v>
       </c>
       <c r="G141" s="5" t="s">
@@ -6107,7 +6375,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
+    <row r="142" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>431</v>
       </c>
@@ -6120,10 +6388,10 @@
       <c r="D142" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E142" s="11" t="n">
+      <c r="E142" s="11">
         <v>2578</v>
       </c>
-      <c r="F142" s="6" t="n">
+      <c r="F142" s="6">
         <v>448966</v>
       </c>
       <c r="G142" s="5" t="s">
@@ -6136,7 +6404,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="143" ht="11" customHeight="true" outlineLevel="1">
+    <row r="143" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>431</v>
       </c>
@@ -6149,10 +6417,10 @@
       <c r="D143" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="E143" s="12" t="n">
-        <v>148.141</v>
-      </c>
-      <c r="F143" s="6" t="n">
+      <c r="E143" s="12">
+        <v>148.14099999999999</v>
+      </c>
+      <c r="F143" s="6">
         <v>16289</v>
       </c>
       <c r="G143" s="5" t="s">
@@ -6162,7 +6430,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="144" ht="11" customHeight="true" outlineLevel="1">
+    <row r="144" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>431</v>
       </c>
@@ -6175,10 +6443,10 @@
       <c r="D144" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E144" s="12" t="n">
+      <c r="E144" s="12">
         <v>211.6</v>
       </c>
-      <c r="F144" s="6" t="n">
+      <c r="F144" s="6">
         <v>39505</v>
       </c>
       <c r="G144" s="5" t="s">
@@ -6191,7 +6459,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="145" ht="11" customHeight="true" outlineLevel="1">
+    <row r="145" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>431</v>
       </c>
@@ -6204,10 +6472,10 @@
       <c r="D145" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E145" s="12" t="n">
+      <c r="E145" s="12">
         <v>16</v>
       </c>
-      <c r="F145" s="6" t="n">
+      <c r="F145" s="6">
         <v>6480</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -6217,7 +6485,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="146" ht="11" customHeight="true" outlineLevel="1">
+    <row r="146" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>431</v>
       </c>
@@ -6230,10 +6498,10 @@
       <c r="D146" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E146" s="12" t="n">
+      <c r="E146" s="12">
         <v>114.6</v>
       </c>
-      <c r="F146" s="6" t="n">
+      <c r="F146" s="6">
         <v>9208</v>
       </c>
       <c r="G146" s="5" t="s">
@@ -6243,7 +6511,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="147" ht="11" customHeight="true" outlineLevel="1">
+    <row r="147" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>431</v>
       </c>
@@ -6256,10 +6524,10 @@
       <c r="D147" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E147" s="12" t="n">
-        <v>65.9</v>
-      </c>
-      <c r="F147" s="6" t="n">
+      <c r="E147" s="12">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F147" s="6">
         <v>16765</v>
       </c>
       <c r="G147" s="5" t="s">
@@ -6269,7 +6537,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="148" ht="11" customHeight="true" outlineLevel="1">
+    <row r="148" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>431</v>
       </c>
@@ -6282,10 +6550,10 @@
       <c r="D148" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="E148" s="12" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F148" s="6" t="n">
+      <c r="E148" s="12">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F148" s="6">
         <v>6120</v>
       </c>
       <c r="G148" s="5" t="s">
@@ -6295,7 +6563,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="149" ht="11" customHeight="true" outlineLevel="1">
+    <row r="149" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>431</v>
       </c>
@@ -6308,10 +6576,10 @@
       <c r="D149" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="E149" s="12" t="n">
+      <c r="E149" s="12">
         <v>4</v>
       </c>
-      <c r="F149" s="6" t="n">
+      <c r="F149" s="6">
         <v>3120</v>
       </c>
       <c r="G149" s="5" t="s">
@@ -6321,7 +6589,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+    <row r="150" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>431</v>
       </c>
@@ -6334,10 +6602,10 @@
       <c r="D150" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="E150" s="12" t="n">
+      <c r="E150" s="12">
         <v>225.8</v>
       </c>
-      <c r="F150" s="6" t="n">
+      <c r="F150" s="6">
         <v>24520</v>
       </c>
       <c r="G150" s="5" t="s">
@@ -6350,7 +6618,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="151" ht="11" customHeight="true" outlineLevel="1">
+    <row r="151" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>431</v>
       </c>
@@ -6363,10 +6631,10 @@
       <c r="D151" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="E151" s="12" t="n">
+      <c r="E151" s="12">
         <v>106.7</v>
       </c>
-      <c r="F151" s="6" t="n">
+      <c r="F151" s="6">
         <v>37906</v>
       </c>
       <c r="G151" s="5" t="s">
@@ -6379,21 +6647,21 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" ht="13" customHeight="true">
+    <row r="152" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="C152" s="3">
         <v>9</v>
       </c>
-      <c r="E152" s="8" t="n">
+      <c r="E152" s="8">
         <v>2532.83</v>
       </c>
-      <c r="F152" s="4" t="n">
+      <c r="F152" s="4">
         <v>332359</v>
       </c>
     </row>
-    <row r="153" ht="11" customHeight="true" outlineLevel="1">
+    <row r="153" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>468</v>
       </c>
@@ -6406,10 +6674,10 @@
       <c r="D153" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E153" s="12" t="n">
+      <c r="E153" s="12">
         <v>47.5</v>
       </c>
-      <c r="F153" s="6" t="n">
+      <c r="F153" s="6">
         <v>6700</v>
       </c>
       <c r="G153" s="5" t="s">
@@ -6425,7 +6693,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+    <row r="154" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>468</v>
       </c>
@@ -6438,10 +6706,10 @@
       <c r="D154" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="E154" s="12" t="n">
+      <c r="E154" s="12">
         <v>183</v>
       </c>
-      <c r="F154" s="6" t="n">
+      <c r="F154" s="6">
         <v>26300</v>
       </c>
       <c r="G154" s="5" t="s">
@@ -6451,7 +6719,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="155" ht="11" customHeight="true" outlineLevel="1">
+    <row r="155" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>468</v>
       </c>
@@ -6464,10 +6732,10 @@
       <c r="D155" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="E155" s="11" t="n">
-        <v>1119.9</v>
-      </c>
-      <c r="F155" s="6" t="n">
+      <c r="E155" s="11">
+        <v>1119.9000000000001</v>
+      </c>
+      <c r="F155" s="6">
         <v>113204</v>
       </c>
       <c r="G155" s="5" t="s">
@@ -6480,7 +6748,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="156" ht="11" customHeight="true" outlineLevel="1">
+    <row r="156" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>468</v>
       </c>
@@ -6493,10 +6761,10 @@
       <c r="D156" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E156" s="12" t="n">
+      <c r="E156" s="12">
         <v>14.03</v>
       </c>
-      <c r="F156" s="6" t="n">
+      <c r="F156" s="6">
         <v>6375</v>
       </c>
       <c r="G156" s="5" t="s">
@@ -6506,7 +6774,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
+    <row r="157" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>468</v>
       </c>
@@ -6519,10 +6787,10 @@
       <c r="D157" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="E157" s="12" t="n">
+      <c r="E157" s="12">
         <v>46.12</v>
       </c>
-      <c r="F157" s="6" t="n">
+      <c r="F157" s="6">
         <v>18850</v>
       </c>
       <c r="G157" s="5" t="s">
@@ -6535,7 +6803,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="158" ht="11" customHeight="true" outlineLevel="1">
+    <row r="158" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>468</v>
       </c>
@@ -6548,10 +6816,10 @@
       <c r="D158" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E158" s="12" t="n">
+      <c r="E158" s="12">
         <v>72.28</v>
       </c>
-      <c r="F158" s="6" t="n">
+      <c r="F158" s="6">
         <v>20075</v>
       </c>
       <c r="G158" s="5" t="s">
@@ -6561,7 +6829,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="159" ht="11" customHeight="true" outlineLevel="1">
+    <row r="159" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>468</v>
       </c>
@@ -6574,10 +6842,10 @@
       <c r="D159" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E159" s="12" t="n">
+      <c r="E159" s="12">
         <v>40</v>
       </c>
-      <c r="F159" s="6" t="n">
+      <c r="F159" s="6">
         <v>19000</v>
       </c>
       <c r="G159" s="5" t="s">
@@ -6587,7 +6855,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="160" ht="11" customHeight="true" outlineLevel="1">
+    <row r="160" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>468</v>
       </c>
@@ -6600,10 +6868,10 @@
       <c r="D160" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E160" s="12" t="n">
+      <c r="E160" s="12">
         <v>341</v>
       </c>
-      <c r="F160" s="6" t="n">
+      <c r="F160" s="6">
         <v>40500</v>
       </c>
       <c r="G160" s="5" t="s">
@@ -6613,7 +6881,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+    <row r="161" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>468</v>
       </c>
@@ -6626,10 +6894,10 @@
       <c r="D161" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E161" s="12" t="n">
+      <c r="E161" s="12">
         <v>669</v>
       </c>
-      <c r="F161" s="6" t="n">
+      <c r="F161" s="6">
         <v>81355</v>
       </c>
       <c r="G161" s="5" t="s">
@@ -6642,21 +6910,21 @@
         <v>502</v>
       </c>
     </row>
-    <row r="162" ht="13" customHeight="true">
+    <row r="162" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="C162" s="3">
         <v>3</v>
       </c>
-      <c r="E162" s="14" t="n">
+      <c r="E162" s="14">
         <v>497.3</v>
       </c>
-      <c r="F162" s="4" t="n">
+      <c r="F162" s="4">
         <v>146229</v>
       </c>
     </row>
-    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+    <row r="163" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>503</v>
       </c>
@@ -6666,10 +6934,10 @@
       <c r="C163" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="E163" s="12" t="n">
+      <c r="E163" s="12">
         <v>1.7</v>
       </c>
-      <c r="F163" s="6" t="n">
+      <c r="F163" s="6">
         <v>1736</v>
       </c>
       <c r="G163" s="5" t="s">
@@ -6685,7 +6953,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="164" ht="11" customHeight="true" outlineLevel="1">
+    <row r="164" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>503</v>
       </c>
@@ -6695,10 +6963,10 @@
       <c r="C164" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="E164" s="12" t="n">
-        <v>67.6</v>
-      </c>
-      <c r="F164" s="6" t="n">
+      <c r="E164" s="12">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="F164" s="6">
         <v>70503</v>
       </c>
       <c r="G164" s="5" t="s">
@@ -6711,7 +6979,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="165" ht="11" customHeight="true" outlineLevel="1">
+    <row r="165" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>503</v>
       </c>
@@ -6724,10 +6992,10 @@
       <c r="D165" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="E165" s="12" t="n">
+      <c r="E165" s="12">
         <v>428</v>
       </c>
-      <c r="F165" s="6" t="n">
+      <c r="F165" s="6">
         <v>73990</v>
       </c>
       <c r="G165" s="5" t="s">
@@ -6740,21 +7008,21 @@
         <v>512</v>
       </c>
     </row>
-    <row r="166" ht="13" customHeight="true">
+    <row r="166" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C166" s="3" t="n">
+      <c r="C166" s="3">
         <v>1</v>
       </c>
-      <c r="E166" s="8" t="n">
+      <c r="E166" s="8">
         <v>3546</v>
       </c>
-      <c r="F166" s="4" t="n">
+      <c r="F166" s="4">
         <v>362700</v>
       </c>
     </row>
-    <row r="167" ht="11" customHeight="true" outlineLevel="1">
+    <row r="167" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>513</v>
       </c>
@@ -6764,10 +7032,10 @@
       <c r="C167" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="E167" s="11" t="n">
+      <c r="E167" s="11">
         <v>3546</v>
       </c>
-      <c r="F167" s="6" t="n">
+      <c r="F167" s="6">
         <v>362700</v>
       </c>
       <c r="G167" s="5" t="s">
@@ -6783,21 +7051,21 @@
         <v>518</v>
       </c>
     </row>
-    <row r="168" ht="13" customHeight="true">
+    <row r="168" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C168" s="3" t="n">
+      <c r="C168" s="3">
         <v>15</v>
       </c>
-      <c r="E168" s="8" t="n">
-        <v>2656.008</v>
-      </c>
-      <c r="F168" s="4" t="n">
+      <c r="E168" s="8">
+        <v>2656.0079999999998</v>
+      </c>
+      <c r="F168" s="4">
         <v>492354</v>
       </c>
     </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
+    <row r="169" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>519</v>
       </c>
@@ -6810,10 +7078,10 @@
       <c r="D169" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E169" s="12" t="n">
+      <c r="E169" s="12">
         <v>197</v>
       </c>
-      <c r="F169" s="6" t="n">
+      <c r="F169" s="6">
         <v>24500</v>
       </c>
       <c r="G169" s="5" t="s">
@@ -6829,7 +7097,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="170" ht="11" customHeight="true" outlineLevel="1">
+    <row r="170" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>519</v>
       </c>
@@ -6842,10 +7110,10 @@
       <c r="D170" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E170" s="12" t="n">
+      <c r="E170" s="12">
         <v>70</v>
       </c>
-      <c r="F170" s="6" t="n">
+      <c r="F170" s="6">
         <v>5480</v>
       </c>
       <c r="G170" s="5" t="s">
@@ -6855,7 +7123,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="171" ht="11" customHeight="true" outlineLevel="1">
+    <row r="171" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>519</v>
       </c>
@@ -6868,10 +7136,10 @@
       <c r="D171" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="E171" s="12" t="n">
-        <v>68.4</v>
-      </c>
-      <c r="F171" s="6" t="n">
+      <c r="E171" s="12">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F171" s="6">
         <v>26044</v>
       </c>
       <c r="G171" s="5" t="s">
@@ -6884,7 +7152,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="172" ht="11" customHeight="true" outlineLevel="1">
+    <row r="172" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>519</v>
       </c>
@@ -6897,10 +7165,10 @@
       <c r="D172" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="E172" s="12" t="n">
+      <c r="E172" s="12">
         <v>71.88</v>
       </c>
-      <c r="F172" s="6" t="n">
+      <c r="F172" s="6">
         <v>18176</v>
       </c>
       <c r="G172" s="5" t="s">
@@ -6910,7 +7178,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="173" ht="11" customHeight="true" outlineLevel="1">
+    <row r="173" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>519</v>
       </c>
@@ -6923,10 +7191,10 @@
       <c r="D173" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="E173" s="12" t="n">
+      <c r="E173" s="12">
         <v>80</v>
       </c>
-      <c r="F173" s="6" t="n">
+      <c r="F173" s="6">
         <v>4400</v>
       </c>
       <c r="G173" s="5" t="s">
@@ -6936,7 +7204,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="174" ht="11" customHeight="true" outlineLevel="1">
+    <row r="174" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>519</v>
       </c>
@@ -6949,10 +7217,10 @@
       <c r="D174" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="E174" s="12" t="n">
+      <c r="E174" s="12">
         <v>345.18</v>
       </c>
-      <c r="F174" s="6" t="n">
+      <c r="F174" s="6">
         <v>56292</v>
       </c>
       <c r="G174" s="5" t="s">
@@ -6962,7 +7230,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="175" ht="11" customHeight="true" outlineLevel="1">
+    <row r="175" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>519</v>
       </c>
@@ -6975,10 +7243,10 @@
       <c r="D175" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="E175" s="12" t="n">
+      <c r="E175" s="12">
         <v>26.3</v>
       </c>
-      <c r="F175" s="6" t="n">
+      <c r="F175" s="6">
         <v>6806</v>
       </c>
       <c r="G175" s="5" t="s">
@@ -6988,7 +7256,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
+    <row r="176" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>519</v>
       </c>
@@ -7001,10 +7269,10 @@
       <c r="D176" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="E176" s="12" t="n">
-        <v>117.356</v>
-      </c>
-      <c r="F176" s="6" t="n">
+      <c r="E176" s="12">
+        <v>117.35599999999999</v>
+      </c>
+      <c r="F176" s="6">
         <v>18327</v>
       </c>
       <c r="G176" s="5" t="s">
@@ -7014,7 +7282,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
+    <row r="177" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>519</v>
       </c>
@@ -7027,10 +7295,10 @@
       <c r="D177" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E177" s="12" t="n">
+      <c r="E177" s="12">
         <v>29</v>
       </c>
-      <c r="F177" s="6" t="n">
+      <c r="F177" s="6">
         <v>11100</v>
       </c>
       <c r="G177" s="5" t="s">
@@ -7040,7 +7308,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="1">
+    <row r="178" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>519</v>
       </c>
@@ -7053,10 +7321,10 @@
       <c r="D178" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="E178" s="12" t="n">
+      <c r="E178" s="12">
         <v>20</v>
       </c>
-      <c r="F178" s="6" t="n">
+      <c r="F178" s="6">
         <v>7300</v>
       </c>
       <c r="G178" s="5" t="s">
@@ -7069,7 +7337,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" ht="11" customHeight="true" outlineLevel="1">
+    <row r="179" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>519</v>
       </c>
@@ -7082,10 +7350,10 @@
       <c r="D179" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E179" s="12" t="n">
+      <c r="E179" s="12">
         <v>209.08</v>
       </c>
-      <c r="F179" s="6" t="n">
+      <c r="F179" s="6">
         <v>85753</v>
       </c>
       <c r="G179" s="5" t="s">
@@ -7098,7 +7366,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="180" ht="11" customHeight="true" outlineLevel="1">
+    <row r="180" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>519</v>
       </c>
@@ -7111,10 +7379,10 @@
       <c r="D180" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="E180" s="12" t="n">
+      <c r="E180" s="12">
         <v>111.402</v>
       </c>
-      <c r="F180" s="6" t="n">
+      <c r="F180" s="6">
         <v>14290</v>
       </c>
       <c r="G180" s="5" t="s">
@@ -7124,7 +7392,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
+    <row r="181" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>519</v>
       </c>
@@ -7137,10 +7405,10 @@
       <c r="D181" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E181" s="12" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="F181" s="6" t="n">
+      <c r="E181" s="12">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="F181" s="6">
         <v>42270</v>
       </c>
       <c r="G181" s="5" t="s">
@@ -7150,7 +7418,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
+    <row r="182" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>519</v>
       </c>
@@ -7160,10 +7428,10 @@
       <c r="C182" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E182" s="12" t="n">
+      <c r="E182" s="12">
         <v>458</v>
       </c>
-      <c r="F182" s="6" t="n">
+      <c r="F182" s="6">
         <v>61550</v>
       </c>
       <c r="G182" s="5" t="s">
@@ -7176,7 +7444,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="183" ht="11" customHeight="true" outlineLevel="1">
+    <row r="183" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>519</v>
       </c>
@@ -7189,10 +7457,10 @@
       <c r="D183" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="E183" s="12" t="n">
+      <c r="E183" s="12">
         <v>624.91</v>
       </c>
-      <c r="F183" s="6" t="n">
+      <c r="F183" s="6">
         <v>94115</v>
       </c>
       <c r="G183" s="5" t="s">
@@ -7205,7 +7473,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="184" ht="11" customHeight="true" outlineLevel="1">
+    <row r="184" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>519</v>
       </c>
@@ -7218,10 +7486,10 @@
       <c r="D184" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E184" s="12" t="n">
+      <c r="E184" s="12">
         <v>95.7</v>
       </c>
-      <c r="F184" s="6" t="n">
+      <c r="F184" s="6">
         <v>15951</v>
       </c>
       <c r="G184" s="5" t="s">
@@ -7231,21 +7499,21 @@
         <v>523</v>
       </c>
     </row>
-    <row r="185" ht="13" customHeight="true">
+    <row r="185" spans="1:11" ht="13.05" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="C185" s="3" t="n">
+      <c r="C185" s="3">
         <v>24</v>
       </c>
-      <c r="E185" s="8" t="n">
-        <v>2362.492</v>
-      </c>
-      <c r="F185" s="4" t="n">
+      <c r="E185" s="8">
+        <v>2362.4920000000002</v>
+      </c>
+      <c r="F185" s="4">
         <v>495525</v>
       </c>
     </row>
-    <row r="186" ht="11" customHeight="true" outlineLevel="1">
+    <row r="186" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>573</v>
       </c>
@@ -7258,10 +7526,10 @@
       <c r="D186" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="E186" s="12" t="n">
+      <c r="E186" s="12">
         <v>96.37</v>
       </c>
-      <c r="F186" s="6" t="n">
+      <c r="F186" s="6">
         <v>34885</v>
       </c>
       <c r="G186" s="5" t="s">
@@ -7277,7 +7545,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="187" ht="11" customHeight="true" outlineLevel="1">
+    <row r="187" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>573</v>
       </c>
@@ -7290,10 +7558,10 @@
       <c r="D187" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="E187" s="12" t="n">
+      <c r="E187" s="12">
         <v>204.375</v>
       </c>
-      <c r="F187" s="6" t="n">
+      <c r="F187" s="6">
         <v>52722</v>
       </c>
       <c r="G187" s="5" t="s">
@@ -7303,7 +7571,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="188" ht="11" customHeight="true" outlineLevel="1">
+    <row r="188" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>573</v>
       </c>
@@ -7316,10 +7584,10 @@
       <c r="D188" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="E188" s="12" t="n">
+      <c r="E188" s="12">
         <v>84.8</v>
       </c>
-      <c r="F188" s="6" t="n">
+      <c r="F188" s="6">
         <v>16049</v>
       </c>
       <c r="G188" s="5" t="s">
@@ -7329,7 +7597,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="189" ht="11" customHeight="true" outlineLevel="1">
+    <row r="189" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
         <v>573</v>
       </c>
@@ -7342,10 +7610,10 @@
       <c r="D189" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="E189" s="12" t="n">
+      <c r="E189" s="12">
         <v>106.55</v>
       </c>
-      <c r="F189" s="6" t="n">
+      <c r="F189" s="6">
         <v>15790</v>
       </c>
       <c r="G189" s="5" t="s">
@@ -7355,7 +7623,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="190" ht="11" customHeight="true" outlineLevel="1">
+    <row r="190" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>573</v>
       </c>
@@ -7368,10 +7636,10 @@
       <c r="D190" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="E190" s="12" t="n">
+      <c r="E190" s="12">
         <v>70</v>
       </c>
-      <c r="F190" s="6" t="n">
+      <c r="F190" s="6">
         <v>7684</v>
       </c>
       <c r="G190" s="5" t="s">
@@ -7381,7 +7649,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="191" ht="11" customHeight="true" outlineLevel="1">
+    <row r="191" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>573</v>
       </c>
@@ -7391,10 +7659,10 @@
       <c r="C191" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E191" s="12" t="n">
+      <c r="E191" s="12">
         <v>261.12</v>
       </c>
-      <c r="F191" s="6" t="n">
+      <c r="F191" s="6">
         <v>49248</v>
       </c>
       <c r="G191" s="5" t="s">
@@ -7407,7 +7675,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="192" ht="11" customHeight="true" outlineLevel="1">
+    <row r="192" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>573</v>
       </c>
@@ -7420,10 +7688,10 @@
       <c r="D192" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="E192" s="12" t="n">
+      <c r="E192" s="12">
         <v>48</v>
       </c>
-      <c r="F192" s="6" t="n">
+      <c r="F192" s="6">
         <v>16400</v>
       </c>
       <c r="G192" s="5" t="s">
@@ -7433,7 +7701,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="193" ht="11" customHeight="true" outlineLevel="1">
+    <row r="193" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>573</v>
       </c>
@@ -7446,10 +7714,10 @@
       <c r="D193" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="E193" s="12" t="n">
+      <c r="E193" s="12">
         <v>11.8</v>
       </c>
-      <c r="F193" s="6" t="n">
+      <c r="F193" s="6">
         <v>2475</v>
       </c>
       <c r="G193" s="5" t="s">
@@ -7459,7 +7727,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="194" ht="11" customHeight="true" outlineLevel="1">
+    <row r="194" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>573</v>
       </c>
@@ -7472,10 +7740,10 @@
       <c r="D194" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="E194" s="12" t="n">
-        <v>102.353</v>
-      </c>
-      <c r="F194" s="6" t="n">
+      <c r="E194" s="12">
+        <v>102.35299999999999</v>
+      </c>
+      <c r="F194" s="6">
         <v>27973</v>
       </c>
       <c r="G194" s="5" t="s">
@@ -7488,7 +7756,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="195" ht="11" customHeight="true" outlineLevel="1">
+    <row r="195" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>573</v>
       </c>
@@ -7501,10 +7769,10 @@
       <c r="D195" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="E195" s="12" t="n">
+      <c r="E195" s="12">
         <v>49.69</v>
       </c>
-      <c r="F195" s="6" t="n">
+      <c r="F195" s="6">
         <v>18634</v>
       </c>
       <c r="G195" s="5" t="s">
@@ -7514,7 +7782,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="196" ht="11" customHeight="true" outlineLevel="1">
+    <row r="196" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>573</v>
       </c>
@@ -7527,10 +7795,10 @@
       <c r="D196" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="E196" s="12" t="n">
-        <v>73.96</v>
-      </c>
-      <c r="F196" s="6" t="n">
+      <c r="E196" s="12">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="F196" s="6">
         <v>26228</v>
       </c>
       <c r="G196" s="5" t="s">
@@ -7543,7 +7811,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="197" ht="11" customHeight="true" outlineLevel="1">
+    <row r="197" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>573</v>
       </c>
@@ -7556,10 +7824,10 @@
       <c r="D197" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="E197" s="12" t="n">
+      <c r="E197" s="12">
         <v>21.343</v>
       </c>
-      <c r="F197" s="6" t="n">
+      <c r="F197" s="6">
         <v>10056</v>
       </c>
       <c r="G197" s="5" t="s">
@@ -7569,7 +7837,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="198" ht="11" customHeight="true" outlineLevel="1">
+    <row r="198" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>573</v>
       </c>
@@ -7582,10 +7850,10 @@
       <c r="D198" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="E198" s="12" t="n">
-        <v>34.865</v>
-      </c>
-      <c r="F198" s="6" t="n">
+      <c r="E198" s="12">
+        <v>34.865000000000002</v>
+      </c>
+      <c r="F198" s="6">
         <v>12389</v>
       </c>
       <c r="G198" s="5" t="s">
@@ -7595,7 +7863,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="199" ht="11" customHeight="true" outlineLevel="1">
+    <row r="199" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>573</v>
       </c>
@@ -7608,10 +7876,10 @@
       <c r="D199" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="E199" s="12" t="n">
-        <v>19.835</v>
-      </c>
-      <c r="F199" s="6" t="n">
+      <c r="E199" s="12">
+        <v>19.835000000000001</v>
+      </c>
+      <c r="F199" s="6">
         <v>5498</v>
       </c>
       <c r="G199" s="5" t="s">
@@ -7621,7 +7889,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="200" ht="11" customHeight="true" outlineLevel="1">
+    <row r="200" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>573</v>
       </c>
@@ -7634,10 +7902,10 @@
       <c r="D200" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="E200" s="12" t="n">
+      <c r="E200" s="12">
         <v>497</v>
       </c>
-      <c r="F200" s="6" t="n">
+      <c r="F200" s="6">
         <v>70250</v>
       </c>
       <c r="G200" s="5" t="s">
@@ -7650,7 +7918,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="201" ht="11" customHeight="true" outlineLevel="1">
+    <row r="201" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>573</v>
       </c>
@@ -7663,10 +7931,10 @@
       <c r="D201" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="E201" s="12" t="n">
+      <c r="E201" s="12">
         <v>177.96</v>
       </c>
-      <c r="F201" s="6" t="n">
+      <c r="F201" s="6">
         <v>23496</v>
       </c>
       <c r="G201" s="5" t="s">
@@ -7676,7 +7944,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="202" ht="11" customHeight="true" outlineLevel="1">
+    <row r="202" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>573</v>
       </c>
@@ -7689,10 +7957,10 @@
       <c r="D202" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E202" s="12" t="n">
-        <v>19.926</v>
-      </c>
-      <c r="F202" s="6" t="n">
+      <c r="E202" s="12">
+        <v>19.925999999999998</v>
+      </c>
+      <c r="F202" s="6">
         <v>8329</v>
       </c>
       <c r="G202" s="5" t="s">
@@ -7702,7 +7970,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="203" ht="11" customHeight="true" outlineLevel="1">
+    <row r="203" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>573</v>
       </c>
@@ -7715,10 +7983,10 @@
       <c r="D203" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="E203" s="12" t="n">
+      <c r="E203" s="12">
         <v>37.29</v>
       </c>
-      <c r="F203" s="6" t="n">
+      <c r="F203" s="6">
         <v>10718</v>
       </c>
       <c r="G203" s="5" t="s">
@@ -7728,7 +7996,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="204" ht="11" customHeight="true" outlineLevel="1">
+    <row r="204" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>573</v>
       </c>
@@ -7741,10 +8009,10 @@
       <c r="D204" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="E204" s="12" t="n">
+      <c r="E204" s="12">
         <v>16</v>
       </c>
-      <c r="F204" s="6" t="n">
+      <c r="F204" s="6">
         <v>5094</v>
       </c>
       <c r="G204" s="5" t="s">
@@ -7754,7 +8022,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="205" ht="11" customHeight="true" outlineLevel="1">
+    <row r="205" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>573</v>
       </c>
@@ -7767,10 +8035,10 @@
       <c r="D205" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="E205" s="12" t="n">
+      <c r="E205" s="12">
         <v>65.84</v>
       </c>
-      <c r="F205" s="6" t="n">
+      <c r="F205" s="6">
         <v>7928</v>
       </c>
       <c r="G205" s="5" t="s">
@@ -7780,7 +8048,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="206" ht="11" customHeight="true" outlineLevel="1">
+    <row r="206" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>573</v>
       </c>
@@ -7793,10 +8061,10 @@
       <c r="D206" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="E206" s="12" t="n">
+      <c r="E206" s="12">
         <v>0.04</v>
       </c>
-      <c r="F206" s="6" t="n">
+      <c r="F206" s="6">
         <v>11600</v>
       </c>
       <c r="G206" s="5" t="s">
@@ -7806,7 +8074,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="207" ht="11" customHeight="true" outlineLevel="1">
+    <row r="207" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>573</v>
       </c>
@@ -7819,10 +8087,10 @@
       <c r="D207" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="E207" s="12" t="n">
+      <c r="E207" s="12">
         <v>18</v>
       </c>
-      <c r="F207" s="6" t="n">
+      <c r="F207" s="6">
         <v>16000</v>
       </c>
       <c r="G207" s="5" t="s">
@@ -7835,7 +8103,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="208" ht="11" customHeight="true" outlineLevel="1">
+    <row r="208" spans="1:9" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>573</v>
       </c>
@@ -7848,10 +8116,10 @@
       <c r="D208" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="E208" s="12" t="n">
+      <c r="E208" s="12">
         <v>102.175</v>
       </c>
-      <c r="F208" s="6" t="n">
+      <c r="F208" s="6">
         <v>4964</v>
       </c>
       <c r="G208" s="5" t="s">
@@ -7864,7 +8132,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="209" ht="11" customHeight="true" outlineLevel="1">
+    <row r="209" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>573</v>
       </c>
@@ -7877,10 +8145,10 @@
       <c r="D209" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="E209" s="12" t="n">
+      <c r="E209" s="12">
         <v>46.2</v>
       </c>
-      <c r="F209" s="6" t="n">
+      <c r="F209" s="6">
         <v>11115</v>
       </c>
       <c r="G209" s="5" t="s">
@@ -7890,7 +8158,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="210" ht="11" customHeight="true" outlineLevel="1">
+    <row r="210" spans="1:11" ht="10.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>573</v>
       </c>
@@ -7903,10 +8171,10 @@
       <c r="D210" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E210" s="12" t="n">
+      <c r="E210" s="12">
         <v>197</v>
       </c>
-      <c r="F210" s="6" t="n">
+      <c r="F210" s="6">
         <v>30000</v>
       </c>
       <c r="G210" s="5" t="s">
@@ -7919,21 +8187,21 @@
         <v>655</v>
       </c>
     </row>
-    <row r="211" ht="13" customHeight="true">
+    <row r="211" spans="1:11" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="C211" s="3" t="n">
+      <c r="C211" s="3">
         <v>22</v>
       </c>
-      <c r="E211" s="8" t="n">
+      <c r="E211" s="8">
         <v>3297.53</v>
       </c>
-      <c r="F211" s="4" t="n">
+      <c r="F211" s="4">
         <v>676542</v>
       </c>
     </row>
-    <row r="212" ht="11" customHeight="true" outlineLevel="1">
+    <row r="212" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>656</v>
       </c>
@@ -7946,10 +8214,10 @@
       <c r="D212" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E212" s="12" t="n">
-        <v>77.1</v>
-      </c>
-      <c r="F212" s="6" t="n">
+      <c r="E212" s="12">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F212" s="6">
         <v>21008</v>
       </c>
       <c r="G212" s="5" t="s">
@@ -7962,7 +8230,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="213" ht="11" customHeight="true" outlineLevel="1">
+    <row r="213" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>656</v>
       </c>
@@ -7982,7 +8250,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="214" ht="11" customHeight="true" outlineLevel="1">
+    <row r="214" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>656</v>
       </c>
@@ -7995,10 +8263,10 @@
       <c r="D214" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E214" s="12" t="n">
-        <v>239.242</v>
-      </c>
-      <c r="F214" s="6" t="n">
+      <c r="E214" s="12">
+        <v>239.24199999999999</v>
+      </c>
+      <c r="F214" s="6">
         <v>13966</v>
       </c>
       <c r="G214" s="5" t="s">
@@ -8008,7 +8276,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="215" ht="11" customHeight="true" outlineLevel="1">
+    <row r="215" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>656</v>
       </c>
@@ -8021,10 +8289,10 @@
       <c r="D215" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="E215" s="12" t="n">
+      <c r="E215" s="12">
         <v>63</v>
       </c>
-      <c r="F215" s="6" t="n">
+      <c r="F215" s="6">
         <v>7870</v>
       </c>
       <c r="G215" s="5" t="s">
@@ -8034,7 +8302,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="216" ht="11" customHeight="true" outlineLevel="1">
+    <row r="216" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
         <v>656</v>
       </c>
@@ -8047,10 +8315,10 @@
       <c r="D216" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="E216" s="12" t="n">
-        <v>37.328</v>
-      </c>
-      <c r="F216" s="6" t="n">
+      <c r="E216" s="12">
+        <v>37.328000000000003</v>
+      </c>
+      <c r="F216" s="6">
         <v>33370</v>
       </c>
       <c r="G216" s="5" t="s">
@@ -8063,7 +8331,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="217" ht="11" customHeight="true" outlineLevel="1">
+    <row r="217" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>656</v>
       </c>
@@ -8076,10 +8344,10 @@
       <c r="D217" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="E217" s="12" t="n">
-        <v>57.615</v>
-      </c>
-      <c r="F217" s="6" t="n">
+      <c r="E217" s="12">
+        <v>57.615000000000002</v>
+      </c>
+      <c r="F217" s="6">
         <v>34300</v>
       </c>
       <c r="G217" s="5" t="s">
@@ -8092,7 +8360,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="218" ht="11" customHeight="true" outlineLevel="1">
+    <row r="218" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>656</v>
       </c>
@@ -8105,10 +8373,10 @@
       <c r="D218" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="E218" s="12" t="n">
+      <c r="E218" s="12">
         <v>58</v>
       </c>
-      <c r="F218" s="6" t="n">
+      <c r="F218" s="6">
         <v>17546</v>
       </c>
       <c r="G218" s="5" t="s">
@@ -8118,7 +8386,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="219" ht="11" customHeight="true" outlineLevel="1">
+    <row r="219" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>656</v>
       </c>
@@ -8131,10 +8399,10 @@
       <c r="D219" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="E219" s="12" t="n">
+      <c r="E219" s="12">
         <v>12</v>
       </c>
-      <c r="F219" s="6" t="n">
+      <c r="F219" s="6">
         <v>4416</v>
       </c>
       <c r="G219" s="5" t="s">
@@ -8144,7 +8412,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="220" ht="11" customHeight="true" outlineLevel="1">
+    <row r="220" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>656</v>
       </c>
@@ -8157,10 +8425,10 @@
       <c r="D220" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E220" s="12" t="n">
+      <c r="E220" s="12">
         <v>341.96</v>
       </c>
-      <c r="F220" s="6" t="n">
+      <c r="F220" s="6">
         <v>104745</v>
       </c>
       <c r="G220" s="5" t="s">
@@ -8173,7 +8441,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="221" ht="11" customHeight="true" outlineLevel="1">
+    <row r="221" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>656</v>
       </c>
@@ -8186,10 +8454,10 @@
       <c r="D221" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="E221" s="12" t="n">
+      <c r="E221" s="12">
         <v>90.8</v>
       </c>
-      <c r="F221" s="6" t="n">
+      <c r="F221" s="6">
         <v>18420</v>
       </c>
       <c r="G221" s="5" t="s">
@@ -8199,7 +8467,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="222" ht="11" customHeight="true" outlineLevel="1">
+    <row r="222" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>656</v>
       </c>
@@ -8209,10 +8477,10 @@
       <c r="C222" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E222" s="12" t="n">
+      <c r="E222" s="12">
         <v>466</v>
       </c>
-      <c r="F222" s="6" t="n">
+      <c r="F222" s="6">
         <v>60200</v>
       </c>
       <c r="G222" s="5" t="s">
@@ -8225,7 +8493,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="223" ht="11" customHeight="true" outlineLevel="1">
+    <row r="223" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>656</v>
       </c>
@@ -8238,10 +8506,10 @@
       <c r="D223" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="E223" s="12" t="n">
-        <v>267.54</v>
-      </c>
-      <c r="F223" s="6" t="n">
+      <c r="E223" s="12">
+        <v>267.54000000000002</v>
+      </c>
+      <c r="F223" s="6">
         <v>85268</v>
       </c>
       <c r="G223" s="5" t="s">
@@ -8254,7 +8522,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="224" ht="11" customHeight="true" outlineLevel="1">
+    <row r="224" spans="1:11" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>656</v>
       </c>
@@ -8267,10 +8535,10 @@
       <c r="D224" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="E224" s="12" t="n">
+      <c r="E224" s="12">
         <v>20</v>
       </c>
-      <c r="F224" s="6" t="n">
+      <c r="F224" s="6">
         <v>8500</v>
       </c>
       <c r="G224" s="5" t="s">
@@ -8283,7 +8551,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="225" ht="11" customHeight="true" outlineLevel="1">
+    <row r="225" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>656</v>
       </c>
@@ -8296,10 +8564,10 @@
       <c r="D225" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="E225" s="12" t="n">
+      <c r="E225" s="12">
         <v>21.3</v>
       </c>
-      <c r="F225" s="6" t="n">
+      <c r="F225" s="6">
         <v>13530</v>
       </c>
       <c r="G225" s="5" t="s">
@@ -8312,7 +8580,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="226" ht="11" customHeight="true" outlineLevel="1">
+    <row r="226" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>656</v>
       </c>
@@ -8325,10 +8593,10 @@
       <c r="D226" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="E226" s="12" t="n">
-        <v>268.53</v>
-      </c>
-      <c r="F226" s="6" t="n">
+      <c r="E226" s="12">
+        <v>268.52999999999997</v>
+      </c>
+      <c r="F226" s="6">
         <v>30010</v>
       </c>
       <c r="G226" s="5" t="s">
@@ -8338,7 +8606,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="227" ht="11" customHeight="true" outlineLevel="1">
+    <row r="227" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>656</v>
       </c>
@@ -8351,10 +8619,10 @@
       <c r="D227" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="E227" s="12" t="n">
+      <c r="E227" s="12">
         <v>192</v>
       </c>
-      <c r="F227" s="6" t="n">
+      <c r="F227" s="6">
         <v>18950</v>
       </c>
       <c r="G227" s="5" t="s">
@@ -8364,7 +8632,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="228" ht="11" customHeight="true" outlineLevel="1">
+    <row r="228" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
         <v>656</v>
       </c>
@@ -8377,10 +8645,10 @@
       <c r="D228" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="E228" s="12" t="n">
+      <c r="E228" s="12">
         <v>64</v>
       </c>
-      <c r="F228" s="6" t="n">
+      <c r="F228" s="6">
         <v>12240</v>
       </c>
       <c r="G228" s="5" t="s">
@@ -8390,7 +8658,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="229" ht="11" customHeight="true" outlineLevel="1">
+    <row r="229" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>656</v>
       </c>
@@ -8403,10 +8671,10 @@
       <c r="D229" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="E229" s="12" t="n">
+      <c r="E229" s="12">
         <v>152.87</v>
       </c>
-      <c r="F229" s="6" t="n">
+      <c r="F229" s="6">
         <v>29960</v>
       </c>
       <c r="G229" s="5" t="s">
@@ -8419,7 +8687,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="230" ht="11" customHeight="true" outlineLevel="1">
+    <row r="230" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>656</v>
       </c>
@@ -8432,10 +8700,10 @@
       <c r="D230" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="E230" s="12" t="n">
+      <c r="E230" s="12">
         <v>203</v>
       </c>
-      <c r="F230" s="6" t="n">
+      <c r="F230" s="6">
         <v>51574</v>
       </c>
       <c r="G230" s="5" t="s">
@@ -8445,7 +8713,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="231" ht="11" customHeight="true" outlineLevel="1">
+    <row r="231" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>656</v>
       </c>
@@ -8458,10 +8726,10 @@
       <c r="D231" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="E231" s="12" t="n">
+      <c r="E231" s="12">
         <v>282.56</v>
       </c>
-      <c r="F231" s="6" t="n">
+      <c r="F231" s="6">
         <v>50340</v>
       </c>
       <c r="G231" s="5" t="s">
@@ -8471,7 +8739,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="232" ht="11" customHeight="true" outlineLevel="1">
+    <row r="232" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>656</v>
       </c>
@@ -8484,10 +8752,10 @@
       <c r="D232" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="E232" s="12" t="n">
-        <v>53.915</v>
-      </c>
-      <c r="F232" s="6" t="n">
+      <c r="E232" s="12">
+        <v>53.914999999999999</v>
+      </c>
+      <c r="F232" s="6">
         <v>7340</v>
       </c>
       <c r="G232" s="5" t="s">
@@ -8496,11 +8764,11 @@
       <c r="H232" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="I232" s="19" t="n">
+      <c r="I232" s="19">
         <v>50</v>
       </c>
     </row>
-    <row r="233" ht="11" customHeight="true" outlineLevel="1">
+    <row r="233" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9" t="s">
         <v>656</v>
       </c>
@@ -8513,10 +8781,10 @@
       <c r="D233" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="E233" s="12" t="n">
+      <c r="E233" s="12">
         <v>44</v>
       </c>
-      <c r="F233" s="6" t="n">
+      <c r="F233" s="6">
         <v>9120</v>
       </c>
       <c r="G233" s="5" t="s">
@@ -8526,7 +8794,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="234" ht="11" customHeight="true" outlineLevel="1">
+    <row r="234" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>656</v>
       </c>
@@ -8539,10 +8807,10 @@
       <c r="D234" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="E234" s="12" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="F234" s="6" t="n">
+      <c r="E234" s="12">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F234" s="6">
         <v>7450</v>
       </c>
       <c r="G234" s="5" t="s">
@@ -8555,7 +8823,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="235" ht="11" customHeight="true" outlineLevel="1">
+    <row r="235" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>656</v>
       </c>
@@ -8568,10 +8836,10 @@
       <c r="D235" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="E235" s="12" t="n">
+      <c r="E235" s="12">
         <v>27</v>
       </c>
-      <c r="F235" s="6" t="n">
+      <c r="F235" s="6">
         <v>8870</v>
       </c>
       <c r="G235" s="5" t="s">
@@ -8581,7 +8849,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="236" ht="11" customHeight="true" outlineLevel="1">
+    <row r="236" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>656</v>
       </c>
@@ -8594,10 +8862,10 @@
       <c r="D236" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="E236" s="12" t="n">
+      <c r="E236" s="12">
         <v>71.875</v>
       </c>
-      <c r="F236" s="6" t="n">
+      <c r="F236" s="6">
         <v>8300</v>
       </c>
       <c r="G236" s="5" t="s">
@@ -8607,7 +8875,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="237" ht="11" customHeight="true" outlineLevel="1">
+    <row r="237" spans="1:9" ht="10.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>656</v>
       </c>
@@ -8620,10 +8888,10 @@
       <c r="D237" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="E237" s="12" t="n">
-        <v>146.195</v>
-      </c>
-      <c r="F237" s="6" t="n">
+      <c r="E237" s="12">
+        <v>146.19499999999999</v>
+      </c>
+      <c r="F237" s="6">
         <v>19249</v>
       </c>
       <c r="G237" s="5" t="s">
@@ -8634,7 +8902,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" top="0.75" right="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>